--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-26T15:00:01+00:00</t>
+    <t>2021-11-26T15:49:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-26T15:49:28+00:00</t>
+    <t>2021-12-02T15:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T15:33:35+00:00</t>
+    <t>2021-12-02T15:37:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T15:37:14+00:00</t>
+    <t>2021-12-07T06:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-07T06:08:43+00:00</t>
+    <t>2021-12-07T14:13:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-07T14:13:42+00:00</t>
+    <t>2021-12-16T13:25:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -755,7 +755,8 @@
     <t>Patient Religion</t>
   </si>
   <si>
-    <t>HL7® Austria FHIR® Core Extension for the religion (registered in Austria) of a patient.</t>
+    <t>HL7® Austria FHIR® Core Extension for the religion (registered in Austria) of a patient.
+The extension is used to encode the religious confession of a patient (only confessions registered in Austria). Furthermore, it uses the official [HL7 AT CodeSystem](https://termpub.gesundheit.gv.at:443/TermBrowser/gui/main/main.zul?loadType=CodeSystem&amp;loadName=HL7 AT ReligionAustria) for religion and is therefore aligned with the ELGA ValueSet, respectively.</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:25:08+00:00</t>
+    <t>2021-12-16T13:27:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:27:06+00:00</t>
+    <t>2021-12-16T13:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:40:06+00:00</t>
+    <t>2021-12-16T13:42:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:42:07+00:00</t>
+    <t>2021-12-16T13:44:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:44:47+00:00</t>
+    <t>2021-12-16T13:46:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:46:43+00:00</t>
+    <t>2021-12-16T13:52:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:52:34+00:00</t>
+    <t>2021-12-16T13:56:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:56:13+00:00</t>
+    <t>2021-12-16T14:00:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:00:07+00:00</t>
+    <t>2021-12-16T14:06:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:06:02+00:00</t>
+    <t>2021-12-16T14:10:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:10:18+00:00</t>
+    <t>2021-12-16T14:12:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:12:05+00:00</t>
+    <t>2021-12-16T14:13:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:13:37+00:00</t>
+    <t>2021-12-16T14:16:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:16:27+00:00</t>
+    <t>2021-12-16T14:22:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:22:32+00:00</t>
+    <t>2021-12-16T14:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:50:40+00:00</t>
+    <t>2021-12-16T17:43:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t>HL7® Austria FHIR® Core Profile for patient pata in Austria.</t>
+    <t>HL7® Austria FHIR® Core Profile for patient data in Austria.
+The HL7® AT Core Patient is based upon the core FHIR® Patient Resource and designed to meet the applicable patient demographic data elements in Austria. It identifies which core elements, extensions, vocabularies and value sets SHALL be present in the resource when using this profile. Note, this extension represents the common structure of Patient information within Austrian information systems.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T17:43:51+00:00</t>
+    <t>2021-12-16T18:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T18:14:01+00:00</t>
+    <t>2021-12-16T18:18:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:29:14+00:00</t>
+    <t>2022-04-12T14:20:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T14:20:55+00:00</t>
+    <t>2022-04-12T15:07:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T15:07:33+00:00</t>
+    <t>2022-11-16T17:52:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,10 +260,6 @@
     <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Patient[classCode=PAT]</t>
   </si>
   <si>
@@ -277,188 +273,192 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Patient.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Patient.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Patient.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Patient.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Patient.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Patient.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>citizenship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {patient-citizenship}
+</t>
+  </si>
+  <si>
+    <t>Nation(s) where the patient claims citizenship</t>
+  </si>
+  <si>
+    <t>The patient's legal status as citizen of a country.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Patient.extension.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Patient.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Patient.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Patient.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Patient.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Patient.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Patient.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>citizenship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {patient-citizenship}
-</t>
-  </si>
-  <si>
-    <t>Nation(s) where the patient claims citizenship</t>
-  </si>
-  <si>
-    <t>The patient's legal status as citizen of a country.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Patient.extension.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -2998,42 +2998,42 @@
     <col min="1" max="1" width="53.9609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="21.1640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="99.16796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="70.3359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="23.64453125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="23.6484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="156.82421875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="40.80859375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="156.828125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="40.8125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="107.39453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.3984375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="40.0703125" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="195.078125" customWidth="true" bestFit="true"/>
   </cols>
@@ -3257,14 +3257,14 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AK2" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AL2" t="s" s="2">
         <v>78</v>
       </c>
@@ -3275,12 +3275,12 @@
         <v>78</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -3291,28 +3291,28 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -3362,13 +3362,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -3408,25 +3408,25 @@
         <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -3477,19 +3477,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -3512,7 +3512,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -3523,28 +3523,28 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -3594,19 +3594,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -3640,7 +3640,7 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -3652,16 +3652,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -3687,43 +3687,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -3746,18 +3746,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -3769,16 +3769,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3828,22 +3828,22 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
@@ -3863,11 +3863,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3886,16 +3886,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3945,7 +3945,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
@@ -3960,7 +3960,7 @@
         <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>78</v>
@@ -3980,7 +3980,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -4003,13 +4003,13 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -4048,17 +4048,17 @@
         <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
@@ -4070,7 +4070,7 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
@@ -4093,10 +4093,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>78</v>
@@ -4106,7 +4106,7 @@
         <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>78</v>
@@ -4118,13 +4118,13 @@
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -4175,7 +4175,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -4184,10 +4184,10 @@
         <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
@@ -4210,7 +4210,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -4221,7 +4221,7 @@
         <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>78</v>
@@ -4233,7 +4233,7 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>143</v>
@@ -4296,7 +4296,7 @@
         <v>76</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>78</v>
@@ -4348,7 +4348,7 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>149</v>
@@ -4395,7 +4395,7 @@
         <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB12" t="s" s="2">
         <v>152</v>
@@ -4404,7 +4404,7 @@
         <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>153</v>
@@ -4419,7 +4419,7 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>146</v>
@@ -4455,7 +4455,7 @@
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>78</v>
@@ -4467,13 +4467,13 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -4536,7 +4536,7 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>78</v>
@@ -4570,7 +4570,7 @@
         <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
@@ -4582,7 +4582,7 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>143</v>
@@ -4645,7 +4645,7 @@
         <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>78</v>
@@ -4697,13 +4697,13 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -4742,7 +4742,7 @@
         <v>78</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB15" t="s" s="2">
         <v>152</v>
@@ -4751,7 +4751,7 @@
         <v>78</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>153</v>
@@ -4766,7 +4766,7 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>78</v>
@@ -4797,10 +4797,10 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>78</v>
@@ -4812,7 +4812,7 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>158</v>
@@ -4874,10 +4874,10 @@
         <v>161</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>78</v>
@@ -4886,7 +4886,7 @@
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
@@ -4914,10 +4914,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>78</v>
@@ -4990,16 +4990,16 @@
         <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>78</v>
@@ -5030,7 +5030,7 @@
         <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>78</v>
@@ -5042,7 +5042,7 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>143</v>
@@ -5105,7 +5105,7 @@
         <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>78</v>
@@ -5157,7 +5157,7 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>149</v>
@@ -5204,7 +5204,7 @@
         <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB19" t="s" s="2">
         <v>152</v>
@@ -5213,7 +5213,7 @@
         <v>78</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>153</v>
@@ -5228,7 +5228,7 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>146</v>
@@ -5271,7 +5271,7 @@
         <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>172</v>
@@ -5347,7 +5347,7 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>178</v>
@@ -5381,7 +5381,7 @@
         <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>78</v>
@@ -5393,7 +5393,7 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>143</v>
@@ -5456,7 +5456,7 @@
         <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>78</v>
@@ -5508,7 +5508,7 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>149</v>
@@ -5555,7 +5555,7 @@
         <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB22" t="s" s="2">
         <v>152</v>
@@ -5564,7 +5564,7 @@
         <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>153</v>
@@ -5579,7 +5579,7 @@
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>146</v>
@@ -5613,19 +5613,19 @@
         <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>183</v>
@@ -5692,13 +5692,13 @@
         <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>189</v>
@@ -5732,19 +5732,19 @@
         <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>192</v>
@@ -5809,13 +5809,13 @@
         <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>196</v>
@@ -5849,19 +5849,19 @@
         <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>199</v>
@@ -5926,13 +5926,13 @@
         <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>203</v>
@@ -5966,19 +5966,19 @@
         <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>206</v>
@@ -6043,13 +6043,13 @@
         <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>210</v>
@@ -6083,16 +6083,16 @@
         <v>76</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>213</v>
@@ -6162,13 +6162,13 @@
         <v>76</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>219</v>
@@ -6202,19 +6202,19 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>222</v>
@@ -6281,13 +6281,13 @@
         <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>227</v>
@@ -6323,7 +6323,7 @@
         <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>78</v>
@@ -6335,7 +6335,7 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>230</v>
@@ -6404,7 +6404,7 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>78</v>
@@ -6438,7 +6438,7 @@
         <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>78</v>
@@ -6450,7 +6450,7 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>143</v>
@@ -6513,7 +6513,7 @@
         <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>78</v>
@@ -6565,13 +6565,13 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -6610,7 +6610,7 @@
         <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB31" t="s" s="2">
         <v>152</v>
@@ -6619,7 +6619,7 @@
         <v>78</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>153</v>
@@ -6634,7 +6634,7 @@
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>78</v>
@@ -6665,10 +6665,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>78</v>
@@ -6680,7 +6680,7 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>158</v>
@@ -6742,10 +6742,10 @@
         <v>161</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>78</v>
@@ -6754,7 +6754,7 @@
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
@@ -6782,10 +6782,10 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>78</v>
@@ -6860,16 +6860,16 @@
         <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -6897,10 +6897,10 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>78</v>
@@ -6912,7 +6912,7 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>158</v>
@@ -6974,10 +6974,10 @@
         <v>161</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>78</v>
@@ -6986,7 +6986,7 @@
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
@@ -7092,16 +7092,16 @@
         <v>76</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -7121,7 +7121,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>237</v>
@@ -7134,7 +7134,7 @@
         <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>78</v>
@@ -7203,7 +7203,7 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -7212,10 +7212,10 @@
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>78</v>
@@ -7255,13 +7255,13 @@
         <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>242</v>
@@ -7334,10 +7334,10 @@
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
@@ -7377,7 +7377,7 @@
         <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>247</v>
@@ -7434,7 +7434,7 @@
         <v>78</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE38" t="s" s="2">
         <v>246</v>
@@ -7449,7 +7449,7 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>252</v>
@@ -7485,16 +7485,16 @@
         <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>247</v>
@@ -7568,7 +7568,7 @@
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>252</v>
@@ -7602,7 +7602,7 @@
         <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>78</v>
@@ -7614,7 +7614,7 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>143</v>
@@ -7677,7 +7677,7 @@
         <v>76</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>78</v>
@@ -7729,7 +7729,7 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>149</v>
@@ -7776,7 +7776,7 @@
         <v>78</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB41" t="s" s="2">
         <v>152</v>
@@ -7785,7 +7785,7 @@
         <v>78</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>153</v>
@@ -7800,7 +7800,7 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>146</v>
@@ -7834,19 +7834,19 @@
         <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H42" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I42" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>260</v>
@@ -7913,13 +7913,13 @@
         <v>76</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>268</v>
@@ -7931,7 +7931,7 @@
         <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -7953,16 +7953,16 @@
         <v>76</v>
       </c>
       <c r="F43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>163</v>
@@ -8032,13 +8032,13 @@
         <v>76</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>268</v>
@@ -8072,7 +8072,7 @@
         <v>76</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>78</v>
@@ -8084,7 +8084,7 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>143</v>
@@ -8147,7 +8147,7 @@
         <v>76</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>78</v>
@@ -8199,7 +8199,7 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>149</v>
@@ -8246,7 +8246,7 @@
         <v>78</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB45" t="s" s="2">
         <v>152</v>
@@ -8255,7 +8255,7 @@
         <v>78</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>153</v>
@@ -8270,7 +8270,7 @@
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>146</v>
@@ -8313,7 +8313,7 @@
         <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>172</v>
@@ -8389,7 +8389,7 @@
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>178</v>
@@ -8423,7 +8423,7 @@
         <v>76</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>78</v>
@@ -8435,7 +8435,7 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>143</v>
@@ -8498,7 +8498,7 @@
         <v>76</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>78</v>
@@ -8550,7 +8550,7 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>149</v>
@@ -8597,7 +8597,7 @@
         <v>78</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB48" t="s" s="2">
         <v>152</v>
@@ -8606,7 +8606,7 @@
         <v>78</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>153</v>
@@ -8621,7 +8621,7 @@
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>146</v>
@@ -8655,19 +8655,19 @@
         <v>76</v>
       </c>
       <c r="F49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J49" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>284</v>
@@ -8734,13 +8734,13 @@
         <v>76</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>189</v>
@@ -8774,19 +8774,19 @@
         <v>76</v>
       </c>
       <c r="F50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J50" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>192</v>
@@ -8851,13 +8851,13 @@
         <v>76</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>196</v>
@@ -8888,22 +8888,22 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F51" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J51" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>199</v>
@@ -8968,13 +8968,13 @@
         <v>76</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>203</v>
@@ -9008,19 +9008,19 @@
         <v>76</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J52" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>206</v>
@@ -9085,13 +9085,13 @@
         <v>76</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>210</v>
@@ -9125,16 +9125,16 @@
         <v>76</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>213</v>
@@ -9204,13 +9204,13 @@
         <v>76</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>219</v>
@@ -9244,19 +9244,19 @@
         <v>76</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>222</v>
@@ -9323,13 +9323,13 @@
         <v>76</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>227</v>
@@ -9360,22 +9360,22 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F55" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>294</v>
@@ -9442,13 +9442,13 @@
         <v>76</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>301</v>
@@ -9482,19 +9482,19 @@
         <v>76</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J56" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>305</v>
@@ -9559,13 +9559,13 @@
         <v>76</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>310</v>
@@ -9599,16 +9599,16 @@
         <v>76</v>
       </c>
       <c r="F57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>232</v>
@@ -9674,13 +9674,13 @@
         <v>76</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>317</v>
@@ -9714,16 +9714,16 @@
         <v>76</v>
       </c>
       <c r="F58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I58" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>320</v>
@@ -9791,13 +9791,13 @@
         <v>76</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>325</v>
@@ -9831,7 +9831,7 @@
         <v>76</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>78</v>
@@ -9843,7 +9843,7 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>143</v>
@@ -9906,7 +9906,7 @@
         <v>76</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>78</v>
@@ -9958,7 +9958,7 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>149</v>
@@ -10005,7 +10005,7 @@
         <v>78</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB60" t="s" s="2">
         <v>152</v>
@@ -10014,7 +10014,7 @@
         <v>78</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>153</v>
@@ -10029,7 +10029,7 @@
         <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>146</v>
@@ -10063,19 +10063,19 @@
         <v>76</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I61" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J61" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>330</v>
@@ -10140,16 +10140,16 @@
         <v>76</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>334</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
@@ -10180,19 +10180,19 @@
         <v>76</v>
       </c>
       <c r="F62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I62" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J62" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>336</v>
@@ -10257,16 +10257,16 @@
         <v>76</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
@@ -10297,16 +10297,16 @@
         <v>76</v>
       </c>
       <c r="F63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I63" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>247</v>
@@ -10374,13 +10374,13 @@
         <v>76</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>347</v>
@@ -10414,19 +10414,19 @@
         <v>76</v>
       </c>
       <c r="F64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I64" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J64" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>349</v>
@@ -10491,16 +10491,16 @@
         <v>76</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
@@ -10542,7 +10542,7 @@
         <v>78</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>247</v>
@@ -10616,7 +10616,7 @@
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>252</v>
@@ -10650,7 +10650,7 @@
         <v>76</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>78</v>
@@ -10662,7 +10662,7 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>143</v>
@@ -10725,7 +10725,7 @@
         <v>76</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>78</v>
@@ -10777,7 +10777,7 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>149</v>
@@ -10824,7 +10824,7 @@
         <v>78</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB67" t="s" s="2">
         <v>152</v>
@@ -10833,7 +10833,7 @@
         <v>78</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE67" t="s" s="2">
         <v>153</v>
@@ -10848,7 +10848,7 @@
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>146</v>
@@ -10882,19 +10882,19 @@
         <v>76</v>
       </c>
       <c r="F68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I68" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>260</v>
@@ -10961,13 +10961,13 @@
         <v>76</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>268</v>
@@ -10979,7 +10979,7 @@
         <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -11001,16 +11001,16 @@
         <v>76</v>
       </c>
       <c r="F69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I69" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>163</v>
@@ -11080,13 +11080,13 @@
         <v>76</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>268</v>
@@ -11120,7 +11120,7 @@
         <v>76</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>78</v>
@@ -11132,7 +11132,7 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>143</v>
@@ -11195,7 +11195,7 @@
         <v>76</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>78</v>
@@ -11247,7 +11247,7 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>149</v>
@@ -11294,7 +11294,7 @@
         <v>78</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB71" t="s" s="2">
         <v>152</v>
@@ -11303,7 +11303,7 @@
         <v>78</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE71" t="s" s="2">
         <v>153</v>
@@ -11318,7 +11318,7 @@
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>146</v>
@@ -11361,7 +11361,7 @@
         <v>78</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>172</v>
@@ -11437,7 +11437,7 @@
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>178</v>
@@ -11471,7 +11471,7 @@
         <v>76</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>78</v>
@@ -11483,7 +11483,7 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>143</v>
@@ -11546,7 +11546,7 @@
         <v>76</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>78</v>
@@ -11598,7 +11598,7 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>149</v>
@@ -11645,7 +11645,7 @@
         <v>78</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB74" t="s" s="2">
         <v>152</v>
@@ -11654,7 +11654,7 @@
         <v>78</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE74" t="s" s="2">
         <v>153</v>
@@ -11669,7 +11669,7 @@
         <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>146</v>
@@ -11703,19 +11703,19 @@
         <v>76</v>
       </c>
       <c r="F75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I75" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J75" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>284</v>
@@ -11782,13 +11782,13 @@
         <v>76</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>189</v>
@@ -11822,19 +11822,19 @@
         <v>76</v>
       </c>
       <c r="F76" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I76" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J76" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>192</v>
@@ -11899,13 +11899,13 @@
         <v>76</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>196</v>
@@ -11936,22 +11936,22 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I77" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F77" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J77" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>199</v>
@@ -12016,13 +12016,13 @@
         <v>76</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>203</v>
@@ -12056,19 +12056,19 @@
         <v>76</v>
       </c>
       <c r="F78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I78" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J78" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>206</v>
@@ -12133,13 +12133,13 @@
         <v>76</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>210</v>
@@ -12173,16 +12173,16 @@
         <v>76</v>
       </c>
       <c r="F79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I79" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>213</v>
@@ -12252,13 +12252,13 @@
         <v>76</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>219</v>
@@ -12292,19 +12292,19 @@
         <v>76</v>
       </c>
       <c r="F80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I80" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J80" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>222</v>
@@ -12371,13 +12371,13 @@
         <v>76</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>227</v>
@@ -12408,22 +12408,22 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I81" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F81" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J81" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>357</v>
@@ -12490,13 +12490,13 @@
         <v>76</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>301</v>
@@ -12530,19 +12530,19 @@
         <v>76</v>
       </c>
       <c r="F82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I82" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J82" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K82" t="s" s="2">
         <v>305</v>
@@ -12607,13 +12607,13 @@
         <v>76</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>310</v>
@@ -12647,16 +12647,16 @@
         <v>76</v>
       </c>
       <c r="F83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I83" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>232</v>
@@ -12722,13 +12722,13 @@
         <v>76</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>317</v>
@@ -12762,16 +12762,16 @@
         <v>76</v>
       </c>
       <c r="F84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I84" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J84" t="s" s="2">
         <v>320</v>
@@ -12839,13 +12839,13 @@
         <v>76</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>325</v>
@@ -12879,7 +12879,7 @@
         <v>76</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>78</v>
@@ -12891,7 +12891,7 @@
         <v>78</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K85" t="s" s="2">
         <v>143</v>
@@ -12954,7 +12954,7 @@
         <v>76</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>78</v>
@@ -13006,7 +13006,7 @@
         <v>78</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>149</v>
@@ -13053,7 +13053,7 @@
         <v>78</v>
       </c>
       <c r="AA86" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB86" t="s" s="2">
         <v>152</v>
@@ -13062,7 +13062,7 @@
         <v>78</v>
       </c>
       <c r="AD86" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE86" t="s" s="2">
         <v>153</v>
@@ -13077,7 +13077,7 @@
         <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>146</v>
@@ -13111,19 +13111,19 @@
         <v>76</v>
       </c>
       <c r="F87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I87" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J87" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>330</v>
@@ -13188,16 +13188,16 @@
         <v>76</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>334</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>78</v>
@@ -13228,19 +13228,19 @@
         <v>76</v>
       </c>
       <c r="F88" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I88" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J88" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>336</v>
@@ -13305,16 +13305,16 @@
         <v>76</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>78</v>
@@ -13345,16 +13345,16 @@
         <v>76</v>
       </c>
       <c r="F89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I89" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J89" t="s" s="2">
         <v>247</v>
@@ -13422,13 +13422,13 @@
         <v>76</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>347</v>
@@ -13462,19 +13462,19 @@
         <v>76</v>
       </c>
       <c r="F90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I90" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J90" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>349</v>
@@ -13539,16 +13539,16 @@
         <v>76</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>78</v>
@@ -13581,16 +13581,16 @@
         <v>76</v>
       </c>
       <c r="F91" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I91" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J91" t="s" s="2">
         <v>247</v>
@@ -13664,7 +13664,7 @@
         <v>78</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>252</v>
@@ -13698,7 +13698,7 @@
         <v>76</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>78</v>
@@ -13710,7 +13710,7 @@
         <v>78</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>143</v>
@@ -13773,7 +13773,7 @@
         <v>76</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>78</v>
@@ -13825,7 +13825,7 @@
         <v>78</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>149</v>
@@ -13872,7 +13872,7 @@
         <v>78</v>
       </c>
       <c r="AA93" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB93" t="s" s="2">
         <v>152</v>
@@ -13881,7 +13881,7 @@
         <v>78</v>
       </c>
       <c r="AD93" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE93" t="s" s="2">
         <v>153</v>
@@ -13896,7 +13896,7 @@
         <v>78</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>146</v>
@@ -13930,19 +13930,19 @@
         <v>76</v>
       </c>
       <c r="F94" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H94" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I94" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>260</v>
@@ -14009,13 +14009,13 @@
         <v>76</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>268</v>
@@ -14027,7 +14027,7 @@
         <v>78</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>78</v>
@@ -14049,16 +14049,16 @@
         <v>76</v>
       </c>
       <c r="F95" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I95" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J95" t="s" s="2">
         <v>163</v>
@@ -14128,13 +14128,13 @@
         <v>76</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>268</v>
@@ -14168,7 +14168,7 @@
         <v>76</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>78</v>
@@ -14180,7 +14180,7 @@
         <v>78</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>143</v>
@@ -14243,7 +14243,7 @@
         <v>76</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>78</v>
@@ -14295,7 +14295,7 @@
         <v>78</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>149</v>
@@ -14342,7 +14342,7 @@
         <v>78</v>
       </c>
       <c r="AA97" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB97" t="s" s="2">
         <v>152</v>
@@ -14351,7 +14351,7 @@
         <v>78</v>
       </c>
       <c r="AD97" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE97" t="s" s="2">
         <v>153</v>
@@ -14366,7 +14366,7 @@
         <v>78</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>146</v>
@@ -14409,7 +14409,7 @@
         <v>78</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J98" t="s" s="2">
         <v>172</v>
@@ -14485,7 +14485,7 @@
         <v>78</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>178</v>
@@ -14519,7 +14519,7 @@
         <v>76</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>78</v>
@@ -14531,7 +14531,7 @@
         <v>78</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>143</v>
@@ -14594,7 +14594,7 @@
         <v>76</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>78</v>
@@ -14646,7 +14646,7 @@
         <v>78</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>149</v>
@@ -14693,7 +14693,7 @@
         <v>78</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB100" t="s" s="2">
         <v>152</v>
@@ -14702,7 +14702,7 @@
         <v>78</v>
       </c>
       <c r="AD100" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE100" t="s" s="2">
         <v>153</v>
@@ -14717,7 +14717,7 @@
         <v>78</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>146</v>
@@ -14751,19 +14751,19 @@
         <v>76</v>
       </c>
       <c r="F101" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I101" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J101" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>284</v>
@@ -14830,13 +14830,13 @@
         <v>76</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>189</v>
@@ -14870,19 +14870,19 @@
         <v>76</v>
       </c>
       <c r="F102" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I102" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J102" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>192</v>
@@ -14947,13 +14947,13 @@
         <v>76</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>196</v>
@@ -14984,22 +14984,22 @@
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I103" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F103" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J103" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K103" t="s" s="2">
         <v>199</v>
@@ -15064,13 +15064,13 @@
         <v>76</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>203</v>
@@ -15104,19 +15104,19 @@
         <v>76</v>
       </c>
       <c r="F104" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I104" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J104" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K104" t="s" s="2">
         <v>206</v>
@@ -15181,13 +15181,13 @@
         <v>76</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>210</v>
@@ -15221,16 +15221,16 @@
         <v>76</v>
       </c>
       <c r="F105" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I105" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J105" t="s" s="2">
         <v>213</v>
@@ -15300,13 +15300,13 @@
         <v>76</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>219</v>
@@ -15340,19 +15340,19 @@
         <v>76</v>
       </c>
       <c r="F106" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I106" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J106" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K106" t="s" s="2">
         <v>222</v>
@@ -15419,13 +15419,13 @@
         <v>76</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>227</v>
@@ -15456,22 +15456,22 @@
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I107" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F107" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J107" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K107" t="s" s="2">
         <v>365</v>
@@ -15538,13 +15538,13 @@
         <v>76</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>301</v>
@@ -15578,19 +15578,19 @@
         <v>76</v>
       </c>
       <c r="F108" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I108" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J108" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>305</v>
@@ -15655,13 +15655,13 @@
         <v>76</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>310</v>
@@ -15695,16 +15695,16 @@
         <v>76</v>
       </c>
       <c r="F109" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I109" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J109" t="s" s="2">
         <v>232</v>
@@ -15770,13 +15770,13 @@
         <v>76</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>317</v>
@@ -15810,16 +15810,16 @@
         <v>76</v>
       </c>
       <c r="F110" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I110" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J110" t="s" s="2">
         <v>320</v>
@@ -15887,13 +15887,13 @@
         <v>76</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>325</v>
@@ -15927,16 +15927,16 @@
         <v>76</v>
       </c>
       <c r="F111" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H111" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I111" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J111" t="s" s="2">
         <v>213</v>
@@ -16008,13 +16008,13 @@
         <v>76</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>374</v>
@@ -16045,7 +16045,7 @@
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F112" t="s" s="2">
         <v>77</v>
@@ -16057,7 +16057,7 @@
         <v>78</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J112" t="s" s="2">
         <v>377</v>
@@ -16133,7 +16133,7 @@
         <v>78</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>382</v>
@@ -16167,7 +16167,7 @@
         <v>76</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>78</v>
@@ -16179,7 +16179,7 @@
         <v>78</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>143</v>
@@ -16242,7 +16242,7 @@
         <v>76</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>78</v>
@@ -16294,7 +16294,7 @@
         <v>78</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K114" t="s" s="2">
         <v>149</v>
@@ -16341,7 +16341,7 @@
         <v>78</v>
       </c>
       <c r="AA114" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB114" t="s" s="2">
         <v>152</v>
@@ -16350,7 +16350,7 @@
         <v>78</v>
       </c>
       <c r="AD114" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE114" t="s" s="2">
         <v>153</v>
@@ -16365,7 +16365,7 @@
         <v>78</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>146</v>
@@ -16399,19 +16399,19 @@
         <v>76</v>
       </c>
       <c r="F115" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H115" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I115" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>388</v>
@@ -16478,13 +16478,13 @@
         <v>76</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>395</v>
@@ -16518,19 +16518,19 @@
         <v>76</v>
       </c>
       <c r="F116" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I116" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J116" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K116" t="s" s="2">
         <v>398</v>
@@ -16597,13 +16597,13 @@
         <v>76</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>403</v>
@@ -16637,19 +16637,19 @@
         <v>76</v>
       </c>
       <c r="F117" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I117" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J117" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K117" t="s" s="2">
         <v>407</v>
@@ -16714,13 +16714,13 @@
         <v>76</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>411</v>
@@ -16763,10 +16763,10 @@
         <v>78</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>416</v>
@@ -16837,7 +16837,7 @@
         <v>78</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>420</v>
@@ -16880,10 +16880,10 @@
         <v>78</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>424</v>
@@ -16952,7 +16952,7 @@
         <v>78</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>427</v>
@@ -16995,10 +16995,10 @@
         <v>78</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K120" t="s" s="2">
         <v>431</v>
@@ -17067,7 +17067,7 @@
         <v>78</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>434</v>
@@ -17101,16 +17101,16 @@
         <v>76</v>
       </c>
       <c r="F121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I121" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J121" t="s" s="2">
         <v>232</v>
@@ -17178,13 +17178,13 @@
         <v>76</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>442</v>
@@ -17227,7 +17227,7 @@
         <v>78</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J122" t="s" s="2">
         <v>445</v>
@@ -17303,7 +17303,7 @@
         <v>78</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>450</v>
@@ -17337,7 +17337,7 @@
         <v>76</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>78</v>
@@ -17349,7 +17349,7 @@
         <v>78</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K123" t="s" s="2">
         <v>143</v>
@@ -17412,7 +17412,7 @@
         <v>76</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>78</v>
@@ -17464,7 +17464,7 @@
         <v>78</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K124" t="s" s="2">
         <v>149</v>
@@ -17511,7 +17511,7 @@
         <v>78</v>
       </c>
       <c r="AA124" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB124" t="s" s="2">
         <v>152</v>
@@ -17520,7 +17520,7 @@
         <v>78</v>
       </c>
       <c r="AD124" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE124" t="s" s="2">
         <v>153</v>
@@ -17535,7 +17535,7 @@
         <v>78</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>146</v>
@@ -17569,19 +17569,19 @@
         <v>76</v>
       </c>
       <c r="F125" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I125" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J125" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K125" t="s" s="2">
         <v>456</v>
@@ -17644,13 +17644,13 @@
         <v>76</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>462</v>
@@ -17684,19 +17684,19 @@
         <v>76</v>
       </c>
       <c r="F126" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I126" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J126" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K126" t="s" s="2">
         <v>466</v>
@@ -17763,13 +17763,13 @@
         <v>76</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>471</v>
@@ -17803,19 +17803,19 @@
         <v>76</v>
       </c>
       <c r="F127" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H127" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I127" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K127" t="s" s="2">
         <v>474</v>
@@ -17882,13 +17882,13 @@
         <v>76</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>395</v>
@@ -17922,16 +17922,16 @@
         <v>76</v>
       </c>
       <c r="F128" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I128" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J128" t="s" s="2">
         <v>484</v>
@@ -17999,13 +17999,13 @@
         <v>76</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>146</v>
@@ -18039,16 +18039,16 @@
         <v>76</v>
       </c>
       <c r="F129" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I129" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J129" t="s" s="2">
         <v>232</v>
@@ -18114,13 +18114,13 @@
         <v>76</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>442</v>
@@ -18132,7 +18132,7 @@
         <v>78</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>78</v>
@@ -18151,22 +18151,22 @@
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F130" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I130" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F130" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J130" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K130" t="s" s="2">
         <v>494</v>
@@ -18233,13 +18233,13 @@
         <v>76</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>500</v>
@@ -18273,16 +18273,16 @@
         <v>76</v>
       </c>
       <c r="F131" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I131" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J131" t="s" s="2">
         <v>505</v>
@@ -18352,13 +18352,13 @@
         <v>76</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>510</v>
@@ -18392,16 +18392,16 @@
         <v>76</v>
       </c>
       <c r="F132" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H132" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I132" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J132" t="s" s="2">
         <v>516</v>
@@ -18469,13 +18469,13 @@
         <v>76</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>523</v>
@@ -18511,16 +18511,16 @@
         <v>76</v>
       </c>
       <c r="F133" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H133" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I133" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J133" t="s" s="2">
         <v>213</v>
@@ -18590,13 +18590,13 @@
         <v>76</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>523</v>
@@ -18632,16 +18632,16 @@
         <v>76</v>
       </c>
       <c r="F134" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H134" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I134" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J134" t="s" s="2">
         <v>528</v>
@@ -18711,13 +18711,13 @@
         <v>76</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>523</v>
@@ -18833,7 +18833,7 @@
         <v>77</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>536</v>
@@ -18870,7 +18870,7 @@
         <v>76</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>78</v>
@@ -18882,7 +18882,7 @@
         <v>78</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K136" t="s" s="2">
         <v>143</v>
@@ -18945,7 +18945,7 @@
         <v>76</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>78</v>
@@ -18997,7 +18997,7 @@
         <v>78</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K137" t="s" s="2">
         <v>149</v>
@@ -19044,7 +19044,7 @@
         <v>78</v>
       </c>
       <c r="AA137" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB137" t="s" s="2">
         <v>152</v>
@@ -19053,7 +19053,7 @@
         <v>78</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE137" t="s" s="2">
         <v>153</v>
@@ -19068,7 +19068,7 @@
         <v>78</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>146</v>
@@ -19102,19 +19102,19 @@
         <v>76</v>
       </c>
       <c r="F138" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H138" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H138" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I138" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K138" t="s" s="2">
         <v>542</v>
@@ -19181,13 +19181,13 @@
         <v>76</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>395</v>
@@ -19221,19 +19221,19 @@
         <v>76</v>
       </c>
       <c r="F139" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I139" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I139" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J139" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K139" t="s" s="2">
         <v>553</v>
@@ -19298,13 +19298,13 @@
         <v>76</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>395</v>
@@ -19338,19 +19338,19 @@
         <v>76</v>
       </c>
       <c r="F140" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I140" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I140" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J140" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K140" t="s" s="2">
         <v>562</v>
@@ -19417,13 +19417,13 @@
         <v>76</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>403</v>
@@ -19466,10 +19466,10 @@
         <v>78</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K141" t="s" s="2">
         <v>570</v>
@@ -19538,7 +19538,7 @@
         <v>78</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>574</v>
@@ -19572,7 +19572,7 @@
         <v>76</v>
       </c>
       <c r="F142" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>78</v>
@@ -19584,7 +19584,7 @@
         <v>78</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K142" t="s" s="2">
         <v>578</v>
@@ -19647,7 +19647,7 @@
         <v>76</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>78</v>
@@ -19699,13 +19699,13 @@
         <v>78</v>
       </c>
       <c r="J143" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K143" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K143" t="s" s="2">
+      <c r="L143" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -19744,14 +19744,14 @@
         <v>78</v>
       </c>
       <c r="AA143" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB143" s="2"/>
       <c r="AC143" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD143" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE143" t="s" s="2">
         <v>153</v>
@@ -19766,7 +19766,7 @@
         <v>78</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>78</v>
@@ -19802,7 +19802,7 @@
         <v>76</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>78</v>
@@ -19880,10 +19880,10 @@
         <v>77</v>
       </c>
       <c r="AH144" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>585</v>
@@ -19919,7 +19919,7 @@
         <v>76</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>78</v>
@@ -19997,10 +19997,10 @@
         <v>77</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>590</v>
@@ -20036,7 +20036,7 @@
         <v>76</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>78</v>
@@ -20114,10 +20114,10 @@
         <v>77</v>
       </c>
       <c r="AH146" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>594</v>
@@ -20153,7 +20153,7 @@
         <v>76</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>78</v>
@@ -20231,10 +20231,10 @@
         <v>77</v>
       </c>
       <c r="AH147" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>78</v>
@@ -20268,7 +20268,7 @@
         <v>76</v>
       </c>
       <c r="F148" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>78</v>
@@ -20280,7 +20280,7 @@
         <v>78</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K148" t="s" s="2">
         <v>600</v>
@@ -20343,7 +20343,7 @@
         <v>76</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>78</v>
@@ -20383,19 +20383,19 @@
         <v>76</v>
       </c>
       <c r="F149" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I149" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I149" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J149" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K149" t="s" s="2">
         <v>606</v>
@@ -20458,13 +20458,13 @@
         <v>76</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>610</v>
@@ -20507,10 +20507,10 @@
         <v>78</v>
       </c>
       <c r="I150" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K150" t="s" s="2">
         <v>615</v>
@@ -20575,13 +20575,13 @@
         <v>76</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>620</v>
@@ -20615,19 +20615,19 @@
         <v>76</v>
       </c>
       <c r="F151" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G151" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I151" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I151" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J151" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K151" t="s" s="2">
         <v>624</v>
@@ -20690,13 +20690,13 @@
         <v>76</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>627</v>
@@ -20730,19 +20730,19 @@
         <v>76</v>
       </c>
       <c r="F152" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G152" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H152" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I152" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G152" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H152" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I152" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J152" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K152" t="s" s="2">
         <v>632</v>
@@ -20805,13 +20805,13 @@
         <v>76</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>636</v>
@@ -20845,19 +20845,19 @@
         <v>76</v>
       </c>
       <c r="F153" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G153" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H153" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I153" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G153" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H153" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I153" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J153" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K153" t="s" s="2">
         <v>640</v>
@@ -20922,13 +20922,13 @@
         <v>76</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>644</v>
@@ -20971,7 +20971,7 @@
         <v>78</v>
       </c>
       <c r="I154" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J154" t="s" s="2">
         <v>232</v>
@@ -21039,13 +21039,13 @@
         <v>76</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>442</v>
@@ -21079,7 +21079,7 @@
         <v>76</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>78</v>
@@ -21156,13 +21156,13 @@
         <v>76</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>660</v>
@@ -21196,7 +21196,7 @@
         <v>76</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>78</v>
@@ -21208,7 +21208,7 @@
         <v>78</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K156" t="s" s="2">
         <v>143</v>
@@ -21271,7 +21271,7 @@
         <v>76</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>78</v>
@@ -21323,7 +21323,7 @@
         <v>78</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K157" t="s" s="2">
         <v>149</v>
@@ -21370,7 +21370,7 @@
         <v>78</v>
       </c>
       <c r="AA157" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB157" t="s" s="2">
         <v>152</v>
@@ -21379,7 +21379,7 @@
         <v>78</v>
       </c>
       <c r="AD157" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE157" t="s" s="2">
         <v>153</v>
@@ -21394,7 +21394,7 @@
         <v>78</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>146</v>
@@ -21437,7 +21437,7 @@
         <v>78</v>
       </c>
       <c r="I158" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J158" t="s" s="2">
         <v>172</v>
@@ -21513,7 +21513,7 @@
         <v>78</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ158" t="s" s="2">
         <v>178</v>
@@ -21547,7 +21547,7 @@
         <v>76</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>78</v>
@@ -21559,7 +21559,7 @@
         <v>78</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K159" t="s" s="2">
         <v>143</v>
@@ -21622,7 +21622,7 @@
         <v>76</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>78</v>
@@ -21674,7 +21674,7 @@
         <v>78</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K160" t="s" s="2">
         <v>149</v>
@@ -21721,7 +21721,7 @@
         <v>78</v>
       </c>
       <c r="AA160" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB160" t="s" s="2">
         <v>152</v>
@@ -21730,7 +21730,7 @@
         <v>78</v>
       </c>
       <c r="AD160" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE160" t="s" s="2">
         <v>153</v>
@@ -21745,7 +21745,7 @@
         <v>78</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>146</v>
@@ -21779,19 +21779,19 @@
         <v>76</v>
       </c>
       <c r="F161" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G161" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H161" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I161" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G161" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H161" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I161" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J161" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K161" t="s" s="2">
         <v>284</v>
@@ -21858,13 +21858,13 @@
         <v>76</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>189</v>
@@ -21898,19 +21898,19 @@
         <v>76</v>
       </c>
       <c r="F162" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G162" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H162" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I162" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G162" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H162" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I162" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J162" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K162" t="s" s="2">
         <v>192</v>
@@ -21975,13 +21975,13 @@
         <v>76</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>196</v>
@@ -22015,19 +22015,19 @@
         <v>76</v>
       </c>
       <c r="F163" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G163" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H163" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I163" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G163" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H163" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I163" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J163" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K163" t="s" s="2">
         <v>199</v>
@@ -22092,13 +22092,13 @@
         <v>76</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>203</v>
@@ -22132,19 +22132,19 @@
         <v>76</v>
       </c>
       <c r="F164" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G164" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H164" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I164" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G164" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H164" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I164" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J164" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K164" t="s" s="2">
         <v>206</v>
@@ -22209,13 +22209,13 @@
         <v>76</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>210</v>
@@ -22249,16 +22249,16 @@
         <v>76</v>
       </c>
       <c r="F165" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G165" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H165" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I165" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G165" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H165" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I165" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J165" t="s" s="2">
         <v>213</v>
@@ -22328,13 +22328,13 @@
         <v>76</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>219</v>
@@ -22368,19 +22368,19 @@
         <v>76</v>
       </c>
       <c r="F166" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G166" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H166" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I166" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G166" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H166" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I166" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J166" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K166" t="s" s="2">
         <v>222</v>
@@ -22447,13 +22447,13 @@
         <v>76</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>227</v>
@@ -22487,7 +22487,7 @@
         <v>76</v>
       </c>
       <c r="F167" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G167" t="s" s="2">
         <v>78</v>
@@ -22564,13 +22564,13 @@
         <v>76</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ167" t="s" s="2">
         <v>683</v>
@@ -22606,7 +22606,7 @@
         <v>76</v>
       </c>
       <c r="F168" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>78</v>
@@ -22685,13 +22685,13 @@
         <v>76</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>683</v>
@@ -22727,7 +22727,7 @@
         <v>76</v>
       </c>
       <c r="F169" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G169" t="s" s="2">
         <v>78</v>
@@ -22806,13 +22806,13 @@
         <v>76</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>683</v>
@@ -22931,7 +22931,7 @@
         <v>78</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ170" t="s" s="2">
         <v>694</v>
@@ -23084,7 +23084,7 @@
         <v>76</v>
       </c>
       <c r="F172" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G172" t="s" s="2">
         <v>78</v>
@@ -23096,7 +23096,7 @@
         <v>78</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K172" t="s" s="2">
         <v>143</v>
@@ -23159,7 +23159,7 @@
         <v>76</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>78</v>
@@ -23211,7 +23211,7 @@
         <v>78</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K173" t="s" s="2">
         <v>149</v>
@@ -23282,7 +23282,7 @@
         <v>78</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ173" t="s" s="2">
         <v>146</v>
@@ -23322,13 +23322,13 @@
         <v>78</v>
       </c>
       <c r="H174" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I174" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K174" t="s" s="2">
         <v>708</v>
@@ -23401,10 +23401,10 @@
         <v>78</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK174" t="s" s="2">
         <v>78</v>
@@ -23518,7 +23518,7 @@
         <v>78</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ175" t="s" s="2">
         <v>154</v>
@@ -23552,7 +23552,7 @@
         <v>76</v>
       </c>
       <c r="F176" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G176" t="s" s="2">
         <v>78</v>
@@ -23564,7 +23564,7 @@
         <v>78</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K176" t="s" s="2">
         <v>143</v>
@@ -23627,7 +23627,7 @@
         <v>76</v>
       </c>
       <c r="AG176" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH176" t="s" s="2">
         <v>78</v>
@@ -23679,7 +23679,7 @@
         <v>78</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K177" t="s" s="2">
         <v>149</v>
@@ -23726,7 +23726,7 @@
         <v>78</v>
       </c>
       <c r="AA177" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB177" t="s" s="2">
         <v>152</v>
@@ -23735,7 +23735,7 @@
         <v>78</v>
       </c>
       <c r="AD177" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE177" t="s" s="2">
         <v>153</v>
@@ -23750,7 +23750,7 @@
         <v>78</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ177" t="s" s="2">
         <v>146</v>
@@ -23793,7 +23793,7 @@
         <v>78</v>
       </c>
       <c r="I178" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J178" t="s" s="2">
         <v>172</v>
@@ -23869,7 +23869,7 @@
         <v>78</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ178" t="s" s="2">
         <v>178</v>
@@ -23903,7 +23903,7 @@
         <v>76</v>
       </c>
       <c r="F179" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G179" t="s" s="2">
         <v>78</v>
@@ -23915,7 +23915,7 @@
         <v>78</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K179" t="s" s="2">
         <v>143</v>
@@ -23978,7 +23978,7 @@
         <v>76</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>78</v>
@@ -24030,7 +24030,7 @@
         <v>78</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K180" t="s" s="2">
         <v>149</v>
@@ -24077,7 +24077,7 @@
         <v>78</v>
       </c>
       <c r="AA180" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB180" t="s" s="2">
         <v>152</v>
@@ -24086,7 +24086,7 @@
         <v>78</v>
       </c>
       <c r="AD180" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE180" t="s" s="2">
         <v>153</v>
@@ -24101,7 +24101,7 @@
         <v>78</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ180" t="s" s="2">
         <v>146</v>
@@ -24135,19 +24135,19 @@
         <v>76</v>
       </c>
       <c r="F181" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G181" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H181" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I181" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G181" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H181" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I181" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J181" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K181" t="s" s="2">
         <v>284</v>
@@ -24214,13 +24214,13 @@
         <v>76</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ181" t="s" s="2">
         <v>189</v>
@@ -24254,19 +24254,19 @@
         <v>76</v>
       </c>
       <c r="F182" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I182" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G182" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H182" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I182" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J182" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K182" t="s" s="2">
         <v>192</v>
@@ -24331,13 +24331,13 @@
         <v>76</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH182" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI182" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ182" t="s" s="2">
         <v>196</v>
@@ -24371,19 +24371,19 @@
         <v>76</v>
       </c>
       <c r="F183" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G183" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H183" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I183" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G183" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H183" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I183" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J183" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K183" t="s" s="2">
         <v>199</v>
@@ -24448,13 +24448,13 @@
         <v>76</v>
       </c>
       <c r="AG183" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH183" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ183" t="s" s="2">
         <v>203</v>
@@ -24488,19 +24488,19 @@
         <v>76</v>
       </c>
       <c r="F184" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G184" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H184" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I184" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G184" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H184" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I184" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J184" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K184" t="s" s="2">
         <v>206</v>
@@ -24565,13 +24565,13 @@
         <v>76</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH184" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ184" t="s" s="2">
         <v>210</v>
@@ -24605,16 +24605,16 @@
         <v>76</v>
       </c>
       <c r="F185" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G185" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H185" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I185" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G185" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H185" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I185" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J185" t="s" s="2">
         <v>213</v>
@@ -24684,13 +24684,13 @@
         <v>76</v>
       </c>
       <c r="AG185" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH185" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI185" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ185" t="s" s="2">
         <v>219</v>
@@ -24724,19 +24724,19 @@
         <v>76</v>
       </c>
       <c r="F186" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G186" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H186" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I186" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G186" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H186" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I186" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J186" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K186" t="s" s="2">
         <v>222</v>
@@ -24803,13 +24803,13 @@
         <v>76</v>
       </c>
       <c r="AG186" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH186" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI186" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ186" t="s" s="2">
         <v>227</v>
@@ -24843,7 +24843,7 @@
         <v>76</v>
       </c>
       <c r="F187" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G187" t="s" s="2">
         <v>78</v>
@@ -24920,13 +24920,13 @@
         <v>76</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ187" t="s" s="2">
         <v>382</v>
@@ -24960,7 +24960,7 @@
         <v>76</v>
       </c>
       <c r="F188" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G188" t="s" s="2">
         <v>78</v>
@@ -24972,7 +24972,7 @@
         <v>78</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K188" t="s" s="2">
         <v>143</v>
@@ -25035,7 +25035,7 @@
         <v>76</v>
       </c>
       <c r="AG188" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH188" t="s" s="2">
         <v>78</v>
@@ -25087,7 +25087,7 @@
         <v>78</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K189" t="s" s="2">
         <v>149</v>
@@ -25134,7 +25134,7 @@
         <v>78</v>
       </c>
       <c r="AA189" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB189" t="s" s="2">
         <v>152</v>
@@ -25143,7 +25143,7 @@
         <v>78</v>
       </c>
       <c r="AD189" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE189" t="s" s="2">
         <v>153</v>
@@ -25158,7 +25158,7 @@
         <v>78</v>
       </c>
       <c r="AI189" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ189" t="s" s="2">
         <v>146</v>
@@ -25192,19 +25192,19 @@
         <v>76</v>
       </c>
       <c r="F190" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G190" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H190" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G190" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H190" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I190" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K190" t="s" s="2">
         <v>388</v>
@@ -25271,13 +25271,13 @@
         <v>76</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH190" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI190" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ190" t="s" s="2">
         <v>395</v>
@@ -25311,19 +25311,19 @@
         <v>76</v>
       </c>
       <c r="F191" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G191" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H191" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I191" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G191" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H191" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I191" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J191" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K191" t="s" s="2">
         <v>398</v>
@@ -25390,13 +25390,13 @@
         <v>76</v>
       </c>
       <c r="AG191" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH191" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI191" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ191" t="s" s="2">
         <v>403</v>
@@ -25430,19 +25430,19 @@
         <v>76</v>
       </c>
       <c r="F192" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G192" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H192" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I192" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G192" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H192" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I192" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J192" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K192" t="s" s="2">
         <v>407</v>
@@ -25507,13 +25507,13 @@
         <v>76</v>
       </c>
       <c r="AG192" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH192" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI192" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ192" t="s" s="2">
         <v>411</v>
@@ -25556,10 +25556,10 @@
         <v>78</v>
       </c>
       <c r="I193" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K193" t="s" s="2">
         <v>416</v>
@@ -25630,7 +25630,7 @@
         <v>78</v>
       </c>
       <c r="AI193" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ193" t="s" s="2">
         <v>420</v>
@@ -25673,10 +25673,10 @@
         <v>78</v>
       </c>
       <c r="I194" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K194" t="s" s="2">
         <v>424</v>
@@ -25745,7 +25745,7 @@
         <v>78</v>
       </c>
       <c r="AI194" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ194" t="s" s="2">
         <v>427</v>
@@ -25788,10 +25788,10 @@
         <v>78</v>
       </c>
       <c r="I195" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K195" t="s" s="2">
         <v>431</v>
@@ -25860,7 +25860,7 @@
         <v>78</v>
       </c>
       <c r="AI195" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ195" t="s" s="2">
         <v>434</v>
@@ -25894,16 +25894,16 @@
         <v>76</v>
       </c>
       <c r="F196" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G196" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H196" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I196" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G196" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H196" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I196" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J196" t="s" s="2">
         <v>232</v>
@@ -25971,13 +25971,13 @@
         <v>76</v>
       </c>
       <c r="AG196" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH196" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI196" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ196" t="s" s="2">
         <v>442</v>
@@ -26096,7 +26096,7 @@
         <v>78</v>
       </c>
       <c r="AI197" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ197" t="s" s="2">
         <v>450</v>
@@ -26130,7 +26130,7 @@
         <v>76</v>
       </c>
       <c r="F198" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G198" t="s" s="2">
         <v>78</v>
@@ -26142,7 +26142,7 @@
         <v>78</v>
       </c>
       <c r="J198" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K198" t="s" s="2">
         <v>143</v>
@@ -26205,7 +26205,7 @@
         <v>76</v>
       </c>
       <c r="AG198" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH198" t="s" s="2">
         <v>78</v>
@@ -26257,7 +26257,7 @@
         <v>78</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K199" t="s" s="2">
         <v>149</v>
@@ -26304,7 +26304,7 @@
         <v>78</v>
       </c>
       <c r="AA199" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB199" t="s" s="2">
         <v>152</v>
@@ -26313,7 +26313,7 @@
         <v>78</v>
       </c>
       <c r="AD199" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE199" t="s" s="2">
         <v>153</v>
@@ -26328,7 +26328,7 @@
         <v>78</v>
       </c>
       <c r="AI199" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ199" t="s" s="2">
         <v>146</v>
@@ -26362,19 +26362,19 @@
         <v>76</v>
       </c>
       <c r="F200" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G200" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H200" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I200" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G200" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H200" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I200" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J200" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K200" t="s" s="2">
         <v>456</v>
@@ -26437,13 +26437,13 @@
         <v>76</v>
       </c>
       <c r="AG200" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH200" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AI200" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ200" t="s" s="2">
         <v>462</v>
@@ -26477,19 +26477,19 @@
         <v>76</v>
       </c>
       <c r="F201" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G201" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H201" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I201" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G201" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H201" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I201" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J201" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K201" t="s" s="2">
         <v>466</v>
@@ -26556,13 +26556,13 @@
         <v>76</v>
       </c>
       <c r="AG201" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH201" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI201" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ201" t="s" s="2">
         <v>471</v>
@@ -26596,19 +26596,19 @@
         <v>76</v>
       </c>
       <c r="F202" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G202" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H202" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G202" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H202" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I202" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J202" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K202" t="s" s="2">
         <v>474</v>
@@ -26675,13 +26675,13 @@
         <v>76</v>
       </c>
       <c r="AG202" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH202" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI202" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ202" t="s" s="2">
         <v>395</v>
@@ -26715,16 +26715,16 @@
         <v>76</v>
       </c>
       <c r="F203" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I203" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G203" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H203" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I203" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J203" t="s" s="2">
         <v>484</v>
@@ -26792,13 +26792,13 @@
         <v>76</v>
       </c>
       <c r="AG203" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH203" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI203" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ203" t="s" s="2">
         <v>146</v>
@@ -26832,16 +26832,16 @@
         <v>76</v>
       </c>
       <c r="F204" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I204" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G204" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H204" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I204" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J204" t="s" s="2">
         <v>232</v>
@@ -26907,13 +26907,13 @@
         <v>76</v>
       </c>
       <c r="AG204" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH204" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI204" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ204" t="s" s="2">
         <v>442</v>
@@ -26925,7 +26925,7 @@
         <v>78</v>
       </c>
       <c r="AM204" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AN204" t="s" s="2">
         <v>78</v>
@@ -26947,7 +26947,7 @@
         <v>76</v>
       </c>
       <c r="F205" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G205" t="s" s="2">
         <v>78</v>
@@ -27026,10 +27026,10 @@
         <v>76</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH205" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI205" t="s" s="2">
         <v>536</v>
@@ -27066,7 +27066,7 @@
         <v>76</v>
       </c>
       <c r="F206" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G206" t="s" s="2">
         <v>78</v>
@@ -27078,7 +27078,7 @@
         <v>78</v>
       </c>
       <c r="J206" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K206" t="s" s="2">
         <v>143</v>
@@ -27141,7 +27141,7 @@
         <v>76</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH206" t="s" s="2">
         <v>78</v>
@@ -27193,7 +27193,7 @@
         <v>78</v>
       </c>
       <c r="J207" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K207" t="s" s="2">
         <v>149</v>
@@ -27240,7 +27240,7 @@
         <v>78</v>
       </c>
       <c r="AA207" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB207" t="s" s="2">
         <v>152</v>
@@ -27249,7 +27249,7 @@
         <v>78</v>
       </c>
       <c r="AD207" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE207" t="s" s="2">
         <v>153</v>
@@ -27264,7 +27264,7 @@
         <v>78</v>
       </c>
       <c r="AI207" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ207" t="s" s="2">
         <v>146</v>
@@ -27298,19 +27298,19 @@
         <v>76</v>
       </c>
       <c r="F208" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G208" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H208" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G208" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H208" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I208" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J208" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K208" t="s" s="2">
         <v>542</v>
@@ -27377,13 +27377,13 @@
         <v>76</v>
       </c>
       <c r="AG208" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH208" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI208" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ208" t="s" s="2">
         <v>395</v>
@@ -27417,19 +27417,19 @@
         <v>76</v>
       </c>
       <c r="F209" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I209" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G209" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H209" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I209" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J209" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K209" t="s" s="2">
         <v>553</v>
@@ -27494,13 +27494,13 @@
         <v>76</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH209" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI209" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ209" t="s" s="2">
         <v>395</v>
@@ -27534,19 +27534,19 @@
         <v>76</v>
       </c>
       <c r="F210" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I210" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G210" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H210" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I210" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J210" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K210" t="s" s="2">
         <v>562</v>
@@ -27613,13 +27613,13 @@
         <v>76</v>
       </c>
       <c r="AG210" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH210" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI210" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ210" t="s" s="2">
         <v>403</v>
@@ -27662,10 +27662,10 @@
         <v>78</v>
       </c>
       <c r="I211" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K211" t="s" s="2">
         <v>570</v>
@@ -27734,7 +27734,7 @@
         <v>78</v>
       </c>
       <c r="AI211" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ211" t="s" s="2">
         <v>574</v>
@@ -27768,7 +27768,7 @@
         <v>76</v>
       </c>
       <c r="F212" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G212" t="s" s="2">
         <v>78</v>
@@ -27780,7 +27780,7 @@
         <v>78</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K212" t="s" s="2">
         <v>578</v>
@@ -27843,7 +27843,7 @@
         <v>76</v>
       </c>
       <c r="AG212" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH212" t="s" s="2">
         <v>78</v>
@@ -27895,13 +27895,13 @@
         <v>78</v>
       </c>
       <c r="J213" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K213" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K213" t="s" s="2">
+      <c r="L213" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="L213" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="M213" s="2"/>
       <c r="N213" s="2"/>
@@ -27940,14 +27940,14 @@
         <v>78</v>
       </c>
       <c r="AA213" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB213" s="2"/>
       <c r="AC213" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD213" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE213" t="s" s="2">
         <v>153</v>
@@ -27962,7 +27962,7 @@
         <v>78</v>
       </c>
       <c r="AI213" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ213" t="s" s="2">
         <v>78</v>
@@ -27998,7 +27998,7 @@
         <v>76</v>
       </c>
       <c r="F214" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G214" t="s" s="2">
         <v>78</v>
@@ -28076,10 +28076,10 @@
         <v>77</v>
       </c>
       <c r="AH214" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI214" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ214" t="s" s="2">
         <v>585</v>
@@ -28115,7 +28115,7 @@
         <v>76</v>
       </c>
       <c r="F215" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G215" t="s" s="2">
         <v>78</v>
@@ -28193,10 +28193,10 @@
         <v>77</v>
       </c>
       <c r="AH215" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI215" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ215" t="s" s="2">
         <v>590</v>
@@ -28232,7 +28232,7 @@
         <v>76</v>
       </c>
       <c r="F216" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G216" t="s" s="2">
         <v>78</v>
@@ -28310,10 +28310,10 @@
         <v>77</v>
       </c>
       <c r="AH216" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI216" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ216" t="s" s="2">
         <v>594</v>
@@ -28349,7 +28349,7 @@
         <v>76</v>
       </c>
       <c r="F217" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G217" t="s" s="2">
         <v>78</v>
@@ -28427,10 +28427,10 @@
         <v>77</v>
       </c>
       <c r="AH217" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI217" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ217" t="s" s="2">
         <v>78</v>
@@ -28464,7 +28464,7 @@
         <v>76</v>
       </c>
       <c r="F218" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G218" t="s" s="2">
         <v>78</v>
@@ -28476,7 +28476,7 @@
         <v>78</v>
       </c>
       <c r="J218" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K218" t="s" s="2">
         <v>600</v>
@@ -28539,7 +28539,7 @@
         <v>76</v>
       </c>
       <c r="AG218" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH218" t="s" s="2">
         <v>78</v>
@@ -28579,19 +28579,19 @@
         <v>76</v>
       </c>
       <c r="F219" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I219" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G219" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H219" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I219" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J219" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K219" t="s" s="2">
         <v>606</v>
@@ -28654,13 +28654,13 @@
         <v>76</v>
       </c>
       <c r="AG219" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH219" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ219" t="s" s="2">
         <v>610</v>
@@ -28703,10 +28703,10 @@
         <v>78</v>
       </c>
       <c r="I220" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J220" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K220" t="s" s="2">
         <v>615</v>
@@ -28771,13 +28771,13 @@
         <v>76</v>
       </c>
       <c r="AG220" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH220" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI220" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ220" t="s" s="2">
         <v>620</v>
@@ -28811,19 +28811,19 @@
         <v>76</v>
       </c>
       <c r="F221" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I221" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G221" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H221" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I221" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J221" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K221" t="s" s="2">
         <v>624</v>
@@ -28886,13 +28886,13 @@
         <v>76</v>
       </c>
       <c r="AG221" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH221" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI221" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ221" t="s" s="2">
         <v>627</v>
@@ -28926,19 +28926,19 @@
         <v>76</v>
       </c>
       <c r="F222" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I222" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G222" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H222" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I222" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J222" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K222" t="s" s="2">
         <v>632</v>
@@ -29001,13 +29001,13 @@
         <v>76</v>
       </c>
       <c r="AG222" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH222" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI222" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ222" t="s" s="2">
         <v>636</v>
@@ -29041,19 +29041,19 @@
         <v>76</v>
       </c>
       <c r="F223" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I223" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G223" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H223" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I223" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J223" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K223" t="s" s="2">
         <v>640</v>
@@ -29118,13 +29118,13 @@
         <v>76</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH223" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI223" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ223" t="s" s="2">
         <v>644</v>
@@ -29167,7 +29167,7 @@
         <v>78</v>
       </c>
       <c r="I224" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J224" t="s" s="2">
         <v>232</v>
@@ -29235,13 +29235,13 @@
         <v>76</v>
       </c>
       <c r="AG224" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH224" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI224" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ224" t="s" s="2">
         <v>442</v>
@@ -29275,7 +29275,7 @@
         <v>76</v>
       </c>
       <c r="F225" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G225" t="s" s="2">
         <v>78</v>
@@ -29287,7 +29287,7 @@
         <v>78</v>
       </c>
       <c r="J225" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K225" t="s" s="2">
         <v>494</v>
@@ -29352,13 +29352,13 @@
         <v>76</v>
       </c>
       <c r="AG225" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH225" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI225" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ225" t="s" s="2">
         <v>500</v>
@@ -29392,7 +29392,7 @@
         <v>76</v>
       </c>
       <c r="F226" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G226" t="s" s="2">
         <v>78</v>
@@ -29469,13 +29469,13 @@
         <v>76</v>
       </c>
       <c r="AG226" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH226" t="s" s="2">
         <v>795</v>
       </c>
       <c r="AI226" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ226" t="s" s="2">
         <v>796</v>
@@ -29509,7 +29509,7 @@
         <v>76</v>
       </c>
       <c r="F227" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G227" t="s" s="2">
         <v>78</v>
@@ -29584,13 +29584,13 @@
         <v>76</v>
       </c>
       <c r="AG227" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH227" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI227" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ227" t="s" s="2">
         <v>802</v>
@@ -29709,7 +29709,7 @@
         <v>78</v>
       </c>
       <c r="AI228" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ228" t="s" s="2">
         <v>808</v>
@@ -29743,7 +29743,7 @@
         <v>76</v>
       </c>
       <c r="F229" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G229" t="s" s="2">
         <v>78</v>
@@ -29755,7 +29755,7 @@
         <v>78</v>
       </c>
       <c r="J229" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K229" t="s" s="2">
         <v>143</v>
@@ -29818,7 +29818,7 @@
         <v>76</v>
       </c>
       <c r="AG229" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH229" t="s" s="2">
         <v>78</v>
@@ -29870,7 +29870,7 @@
         <v>78</v>
       </c>
       <c r="J230" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K230" t="s" s="2">
         <v>149</v>
@@ -29941,7 +29941,7 @@
         <v>78</v>
       </c>
       <c r="AI230" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ230" t="s" s="2">
         <v>146</v>
@@ -29981,13 +29981,13 @@
         <v>78</v>
       </c>
       <c r="H231" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I231" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J231" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K231" t="s" s="2">
         <v>708</v>
@@ -30060,10 +30060,10 @@
         <v>78</v>
       </c>
       <c r="AI231" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK231" t="s" s="2">
         <v>78</v>
@@ -30091,10 +30091,10 @@
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F232" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G232" t="s" s="2">
         <v>78</v>
@@ -30143,13 +30143,13 @@
         <v>78</v>
       </c>
       <c r="W232" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X232" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="X232" t="s" s="2">
+      <c r="Y232" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="Y232" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="Z232" t="s" s="2">
         <v>78</v>
@@ -30170,16 +30170,16 @@
         <v>813</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG232" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH232" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI232" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ232" t="s" s="2">
         <v>818</v>
@@ -30213,7 +30213,7 @@
         <v>76</v>
       </c>
       <c r="F233" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G233" t="s" s="2">
         <v>78</v>
@@ -30292,13 +30292,13 @@
         <v>76</v>
       </c>
       <c r="AG233" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH233" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI233" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ233" t="s" s="2">
         <v>827</v>
@@ -30415,7 +30415,7 @@
         <v>78</v>
       </c>
       <c r="AI234" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ234" t="s" s="2">
         <v>837</v>
@@ -30449,16 +30449,16 @@
         <v>76</v>
       </c>
       <c r="F235" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G235" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H235" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I235" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G235" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H235" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I235" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J235" t="s" s="2">
         <v>320</v>
@@ -30528,13 +30528,13 @@
         <v>76</v>
       </c>
       <c r="AG235" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH235" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI235" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ235" t="s" s="2">
         <v>796</v>
@@ -30574,10 +30574,10 @@
         <v>78</v>
       </c>
       <c r="H236" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I236" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J236" t="s" s="2">
         <v>697</v>
@@ -30653,7 +30653,7 @@
         <v>78</v>
       </c>
       <c r="AI236" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ236" t="s" s="2">
         <v>852</v>
@@ -30687,7 +30687,7 @@
         <v>76</v>
       </c>
       <c r="F237" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G237" t="s" s="2">
         <v>78</v>
@@ -30699,7 +30699,7 @@
         <v>78</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K237" t="s" s="2">
         <v>143</v>
@@ -30762,7 +30762,7 @@
         <v>76</v>
       </c>
       <c r="AG237" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH237" t="s" s="2">
         <v>78</v>
@@ -30814,7 +30814,7 @@
         <v>78</v>
       </c>
       <c r="J238" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K238" t="s" s="2">
         <v>149</v>
@@ -30885,7 +30885,7 @@
         <v>78</v>
       </c>
       <c r="AI238" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ238" t="s" s="2">
         <v>146</v>
@@ -30925,13 +30925,13 @@
         <v>78</v>
       </c>
       <c r="H239" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I239" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J239" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K239" t="s" s="2">
         <v>708</v>
@@ -31004,10 +31004,10 @@
         <v>78</v>
       </c>
       <c r="AI239" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ239" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK239" t="s" s="2">
         <v>78</v>
@@ -31035,19 +31035,19 @@
       </c>
       <c r="D240" s="2"/>
       <c r="E240" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F240" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G240" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H240" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I240" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="F240" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G240" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H240" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I240" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J240" t="s" s="2">
         <v>857</v>
@@ -31112,16 +31112,16 @@
         <v>856</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG240" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH240" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI240" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ240" t="s" s="2">
         <v>252</v>
@@ -31152,22 +31152,22 @@
       </c>
       <c r="D241" s="2"/>
       <c r="E241" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F241" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G241" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H241" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I241" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F241" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G241" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H241" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I241" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J241" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K241" t="s" s="2">
         <v>863</v>
@@ -31227,16 +31227,16 @@
         <v>862</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG241" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH241" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI241" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ241" t="s" s="2">
         <v>866</v>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-20T07:23:49+00:00</t>
+    <t>2023-02-16T15:18:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T20:00:03+00:00</t>
+    <t>2023-12-21T16:09:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T16:56:02+00:00</t>
+    <t>2024-02-10T19:16:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-10T19:16:02+00:00</t>
+    <t>2024-02-10T19:21:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-10T19:21:32+00:00</t>
+    <t>2024-02-16T09:06:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9383" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9383" uniqueCount="971">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T16:08:20+00:00</t>
+    <t>2024-06-05T13:01:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1022,9 +1022,6 @@
   </si>
   <si>
     <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Social Security Number</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -1270,9 +1267,6 @@
     <t>Patient.identifier:bPK.type.coding.display</t>
   </si>
   <si>
-    <t>National unique individual identifier</t>
-  </si>
-  <si>
     <t>Patient.identifier:bPK.type.coding.userSelected</t>
   </si>
   <si>
@@ -1370,9 +1364,6 @@
   </si>
   <si>
     <t>Patient.identifier:localPatientId.type.coding.display</t>
-  </si>
-  <si>
-    <t>Patient internal identifier</t>
   </si>
   <si>
     <t>Patient.identifier:localPatientId.type.coding.userSelected</t>
@@ -9163,49 +9154,49 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF49" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -9223,16 +9214,16 @@
         <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>81</v>
@@ -9240,10 +9231,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -9266,19 +9257,19 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -9327,7 +9318,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -9345,16 +9336,16 @@
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>81</v>
@@ -9362,10 +9353,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B51" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -9391,16 +9382,16 @@
         <v>218</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -9449,7 +9440,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -9467,16 +9458,16 @@
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>81</v>
@@ -9484,7 +9475,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>239</v>
@@ -9513,7 +9504,7 @@
         <v>103</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>241</v>
@@ -9529,7 +9520,7 @@
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S52" t="s" s="2">
         <v>81</v>
@@ -9586,7 +9577,7 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>246</v>
@@ -9606,7 +9597,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>248</v>
@@ -9706,7 +9697,7 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>254</v>
@@ -9726,7 +9717,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>256</v>
@@ -9844,7 +9835,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>262</v>
@@ -9964,10 +9955,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B56" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -10082,10 +10073,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B57" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -10202,10 +10193,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B58" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -10231,13 +10222,13 @@
         <v>218</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -10287,16 +10278,16 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI58" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>101</v>
@@ -10322,10 +10313,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B59" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -10351,13 +10342,13 @@
         <v>103</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -10386,28 +10377,28 @@
         <v>178</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="Z59" t="s" s="2">
+      <c r="AA59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF59" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -10442,10 +10433,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -10471,13 +10462,13 @@
         <v>208</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -10527,7 +10518,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -10545,7 +10536,7 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>81</v>
@@ -10562,10 +10553,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B61" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10591,13 +10582,13 @@
         <v>218</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -10605,49 +10596,49 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF61" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -10682,13 +10673,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>207</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>81</v>
@@ -10804,7 +10795,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>217</v>
@@ -10922,7 +10913,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>219</v>
@@ -11042,7 +11033,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>221</v>
@@ -11164,7 +11155,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>231</v>
@@ -11284,7 +11275,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>277</v>
@@ -11402,7 +11393,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>279</v>
@@ -11522,7 +11513,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>281</v>
@@ -11644,7 +11635,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>291</v>
@@ -11762,7 +11753,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>293</v>
@@ -11882,7 +11873,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>295</v>
@@ -12004,7 +11995,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>305</v>
@@ -12124,7 +12115,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>313</v>
@@ -12167,7 +12158,7 @@
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>81</v>
@@ -12244,7 +12235,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>322</v>
@@ -12287,7 +12278,7 @@
       </c>
       <c r="Q75" s="2"/>
       <c r="R75" t="s" s="2">
-        <v>406</v>
+        <v>81</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>81</v>
@@ -12329,7 +12320,7 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -12347,16 +12338,16 @@
         <v>81</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO75" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AP75" t="s" s="2">
         <v>81</v>
@@ -12364,10 +12355,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -12390,19 +12381,19 @@
         <v>90</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="N76" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>81</v>
@@ -12451,7 +12442,7 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -12469,16 +12460,16 @@
         <v>81</v>
       </c>
       <c r="AL76" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO76" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>81</v>
@@ -12486,10 +12477,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -12515,16 +12506,16 @@
         <v>218</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="N77" t="s" s="2">
+      <c r="O77" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>81</v>
@@ -12573,7 +12564,7 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -12591,16 +12582,16 @@
         <v>81</v>
       </c>
       <c r="AL77" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO77" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>81</v>
@@ -12608,7 +12599,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>239</v>
@@ -12637,7 +12628,7 @@
         <v>103</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>241</v>
@@ -12653,7 +12644,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>81</v>
@@ -12710,7 +12701,7 @@
         <v>101</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>246</v>
@@ -12730,7 +12721,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>248</v>
@@ -12830,7 +12821,7 @@
         <v>101</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>254</v>
@@ -12850,7 +12841,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>256</v>
@@ -12968,7 +12959,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>262</v>
@@ -13088,10 +13079,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -13206,10 +13197,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -13326,10 +13317,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -13355,13 +13346,13 @@
         <v>218</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -13411,16 +13402,16 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI84" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>101</v>
@@ -13446,10 +13437,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -13475,13 +13466,13 @@
         <v>103</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -13510,28 +13501,28 @@
         <v>178</v>
       </c>
       <c r="Y85" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Z85" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="Z85" t="s" s="2">
+      <c r="AA85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF85" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -13566,10 +13557,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13595,13 +13586,13 @@
         <v>208</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -13651,7 +13642,7 @@
         <v>81</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -13669,7 +13660,7 @@
         <v>81</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>81</v>
@@ -13686,10 +13677,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13715,13 +13706,13 @@
         <v>218</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -13729,7 +13720,7 @@
       </c>
       <c r="Q87" s="2"/>
       <c r="R87" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>81</v>
@@ -13771,7 +13762,7 @@
         <v>81</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -13806,13 +13797,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>207</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>81</v>
@@ -13928,7 +13919,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>217</v>
@@ -14046,7 +14037,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>219</v>
@@ -14166,7 +14157,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>221</v>
@@ -14288,7 +14279,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>231</v>
@@ -14408,7 +14399,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>277</v>
@@ -14526,7 +14517,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>279</v>
@@ -14646,7 +14637,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>281</v>
@@ -14768,7 +14759,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>291</v>
@@ -14886,7 +14877,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>293</v>
@@ -15006,7 +14997,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>295</v>
@@ -15128,7 +15119,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>305</v>
@@ -15248,7 +15239,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>313</v>
@@ -15291,7 +15282,7 @@
       </c>
       <c r="Q100" s="2"/>
       <c r="R100" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="S100" t="s" s="2">
         <v>81</v>
@@ -15368,7 +15359,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>322</v>
@@ -15411,7 +15402,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>440</v>
+        <v>81</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>81</v>
@@ -15453,7 +15444,7 @@
         <v>81</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
@@ -15471,16 +15462,16 @@
         <v>81</v>
       </c>
       <c r="AL101" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO101" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO101" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AP101" t="s" s="2">
         <v>81</v>
@@ -15488,10 +15479,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15514,19 +15505,19 @@
         <v>90</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="N102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>81</v>
@@ -15575,7 +15566,7 @@
         <v>81</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
@@ -15593,16 +15584,16 @@
         <v>81</v>
       </c>
       <c r="AL102" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO102" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>81</v>
@@ -15610,10 +15601,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15639,16 +15630,16 @@
         <v>218</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="N103" t="s" s="2">
+      <c r="O103" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>81</v>
@@ -15697,7 +15688,7 @@
         <v>81</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
@@ -15715,16 +15706,16 @@
         <v>81</v>
       </c>
       <c r="AL103" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO103" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO103" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>81</v>
@@ -15732,7 +15723,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>239</v>
@@ -15761,7 +15752,7 @@
         <v>103</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="M104" t="s" s="2">
         <v>241</v>
@@ -15834,7 +15825,7 @@
         <v>101</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>246</v>
@@ -15854,7 +15845,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>248</v>
@@ -15954,7 +15945,7 @@
         <v>101</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>254</v>
@@ -15974,7 +15965,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>256</v>
@@ -16092,7 +16083,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>262</v>
@@ -16212,10 +16203,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -16238,26 +16229,26 @@
         <v>90</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="O108" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="P108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q108" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="N108" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="P108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q108" t="s" s="2">
-        <v>455</v>
-      </c>
       <c r="R108" t="s" s="2">
         <v>81</v>
       </c>
@@ -16301,7 +16292,7 @@
         <v>81</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
@@ -16319,13 +16310,13 @@
         <v>152</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>152</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>81</v>
@@ -16336,10 +16327,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -16362,19 +16353,19 @@
         <v>90</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N109" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L109" t="s" s="2">
+      <c r="O109" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>81</v>
@@ -16423,7 +16414,7 @@
         <v>81</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
@@ -16438,19 +16429,19 @@
         <v>101</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="AP109" t="s" s="2">
         <v>81</v>
@@ -16458,10 +16449,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16576,10 +16567,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16696,10 +16687,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16725,16 +16716,16 @@
         <v>109</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="O112" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>81</v>
@@ -16762,10 +16753,10 @@
         <v>226</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>81</v>
@@ -16783,7 +16774,7 @@
         <v>81</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
@@ -16801,7 +16792,7 @@
         <v>81</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>81</v>
@@ -16810,7 +16801,7 @@
         <v>81</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AP112" t="s" s="2">
         <v>81</v>
@@ -16818,10 +16809,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16847,16 +16838,16 @@
         <v>218</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="O113" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>81</v>
@@ -16905,7 +16896,7 @@
         <v>81</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>79</v>
@@ -16923,7 +16914,7 @@
         <v>81</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>81</v>
@@ -16932,7 +16923,7 @@
         <v>81</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AP113" t="s" s="2">
         <v>81</v>
@@ -16940,14 +16931,14 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -16969,13 +16960,13 @@
         <v>218</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -17025,7 +17016,7 @@
         <v>81</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
@@ -17040,10 +17031,10 @@
         <v>101</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>81</v>
@@ -17052,7 +17043,7 @@
         <v>81</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>81</v>
@@ -17060,14 +17051,14 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -17089,13 +17080,13 @@
         <v>218</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -17145,7 +17136,7 @@
         <v>81</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
@@ -17160,10 +17151,10 @@
         <v>101</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>81</v>
@@ -17172,7 +17163,7 @@
         <v>81</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="AP115" t="s" s="2">
         <v>81</v>
@@ -17180,10 +17171,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -17209,10 +17200,10 @@
         <v>218</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -17263,7 +17254,7 @@
         <v>81</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
@@ -17278,10 +17269,10 @@
         <v>101</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>81</v>
@@ -17290,7 +17281,7 @@
         <v>81</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AP116" t="s" s="2">
         <v>81</v>
@@ -17298,10 +17289,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -17327,10 +17318,10 @@
         <v>218</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -17381,7 +17372,7 @@
         <v>81</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
@@ -17396,10 +17387,10 @@
         <v>101</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>81</v>
@@ -17408,7 +17399,7 @@
         <v>81</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="AP117" t="s" s="2">
         <v>81</v>
@@ -17416,10 +17407,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17445,14 +17436,14 @@
         <v>190</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>81</v>
@@ -17501,7 +17492,7 @@
         <v>81</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>79</v>
@@ -17519,7 +17510,7 @@
         <v>81</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>81</v>
@@ -17528,7 +17519,7 @@
         <v>81</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AP118" t="s" s="2">
         <v>81</v>
@@ -17536,10 +17527,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17562,19 +17553,19 @@
         <v>90</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N119" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="L119" t="s" s="2">
+      <c r="O119" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>81</v>
@@ -17623,7 +17614,7 @@
         <v>81</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>79</v>
@@ -17641,16 +17632,16 @@
         <v>81</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="AP119" t="s" s="2">
         <v>81</v>
@@ -17658,10 +17649,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17776,10 +17767,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17896,10 +17887,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17925,10 +17916,10 @@
         <v>109</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -17958,46 +17949,46 @@
         <v>226</v>
       </c>
       <c r="Y122" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI122" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>81</v>
@@ -18006,7 +17997,7 @@
         <v>81</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AP122" t="s" s="2">
         <v>81</v>
@@ -18014,10 +18005,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -18043,16 +18034,16 @@
         <v>218</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="O123" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>81</v>
@@ -18101,7 +18092,7 @@
         <v>81</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
@@ -18116,10 +18107,10 @@
         <v>101</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>81</v>
@@ -18128,7 +18119,7 @@
         <v>81</v>
       </c>
       <c r="AO123" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="AP123" t="s" s="2">
         <v>81</v>
@@ -18136,10 +18127,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -18165,16 +18156,16 @@
         <v>109</v>
       </c>
       <c r="L124" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="O124" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>81</v>
@@ -18202,10 +18193,10 @@
         <v>226</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>81</v>
@@ -18223,7 +18214,7 @@
         <v>81</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>79</v>
@@ -18238,10 +18229,10 @@
         <v>101</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>81</v>
@@ -18250,7 +18241,7 @@
         <v>81</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AP124" t="s" s="2">
         <v>81</v>
@@ -18258,10 +18249,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -18284,16 +18275,16 @@
         <v>90</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N125" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -18343,7 +18334,7 @@
         <v>81</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>79</v>
@@ -18378,10 +18369,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18407,10 +18398,10 @@
         <v>190</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -18461,7 +18452,7 @@
         <v>81</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>79</v>
@@ -18479,7 +18470,7 @@
         <v>81</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>81</v>
@@ -18496,10 +18487,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18525,16 +18516,16 @@
         <v>109</v>
       </c>
       <c r="L127" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="O127" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="O127" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>81</v>
@@ -18562,10 +18553,10 @@
         <v>226</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="Z127" t="s" s="2">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="AA127" t="s" s="2">
         <v>81</v>
@@ -18583,7 +18574,7 @@
         <v>81</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>79</v>
@@ -18598,19 +18589,19 @@
         <v>101</v>
       </c>
       <c r="AK127" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AN127" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO127" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO127" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="AP127" t="s" s="2">
         <v>81</v>
@@ -18618,10 +18609,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18647,10 +18638,10 @@
         <v>218</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
@@ -18736,10 +18727,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18852,13 +18843,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D130" t="s" s="2">
         <v>81</v>
@@ -18880,13 +18871,13 @@
         <v>81</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -18972,10 +18963,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -19001,10 +18992,10 @@
         <v>218</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -19055,7 +19046,7 @@
         <v>81</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>79</v>
@@ -19090,10 +19081,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -19116,19 +19107,19 @@
         <v>90</v>
       </c>
       <c r="K132" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N132" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="L132" t="s" s="2">
+      <c r="O132" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="O132" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>81</v>
@@ -19177,7 +19168,7 @@
         <v>81</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>79</v>
@@ -19192,30 +19183,30 @@
         <v>101</v>
       </c>
       <c r="AK132" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AL132" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AM132" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AN132" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO132" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="AL132" t="s" s="2">
+      <c r="AP132" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="AM132" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="AN132" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO132" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="AP132" t="s" s="2">
-        <v>608</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -19238,19 +19229,19 @@
         <v>90</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="N133" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="L133" t="s" s="2">
+      <c r="O133" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="O133" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>81</v>
@@ -19287,17 +19278,17 @@
         <v>81</v>
       </c>
       <c r="AB133" t="s" s="2">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="AC133" s="2"/>
       <c r="AD133" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>79</v>
@@ -19315,7 +19306,7 @@
         <v>81</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>152</v>
@@ -19324,7 +19315,7 @@
         <v>81</v>
       </c>
       <c r="AO133" t="s" s="2">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="AP133" t="s" s="2">
         <v>81</v>
@@ -19332,13 +19323,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D134" t="s" s="2">
         <v>81</v>
@@ -19360,19 +19351,19 @@
         <v>90</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L134" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="O134" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>81</v>
@@ -19421,7 +19412,7 @@
         <v>81</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>79</v>
@@ -19436,10 +19427,10 @@
         <v>101</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>152</v>
@@ -19448,7 +19439,7 @@
         <v>81</v>
       </c>
       <c r="AO134" t="s" s="2">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="AP134" t="s" s="2">
         <v>81</v>
@@ -19456,13 +19447,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>81</v>
@@ -19484,19 +19475,19 @@
         <v>90</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="O135" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>81</v>
@@ -19545,7 +19536,7 @@
         <v>81</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>79</v>
@@ -19560,10 +19551,10 @@
         <v>101</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>152</v>
@@ -19572,7 +19563,7 @@
         <v>81</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="AP135" t="s" s="2">
         <v>81</v>
@@ -19580,10 +19571,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19606,19 +19597,19 @@
         <v>81</v>
       </c>
       <c r="K136" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="N136" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="L136" t="s" s="2">
+      <c r="O136" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>81</v>
@@ -19667,7 +19658,7 @@
         <v>81</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>79</v>
@@ -19679,13 +19670,13 @@
         <v>151</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>81</v>
@@ -19694,7 +19685,7 @@
         <v>81</v>
       </c>
       <c r="AO136" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AP136" t="s" s="2">
         <v>81</v>
@@ -19702,10 +19693,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19820,10 +19811,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19940,10 +19931,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19969,16 +19960,16 @@
         <v>109</v>
       </c>
       <c r="L139" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="O139" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>641</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>81</v>
@@ -19991,7 +19982,7 @@
         <v>81</v>
       </c>
       <c r="T139" t="s" s="2">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="U139" t="s" s="2">
         <v>81</v>
@@ -20006,10 +19997,10 @@
         <v>226</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="Z139" t="s" s="2">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>81</v>
@@ -20027,7 +20018,7 @@
         <v>81</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>79</v>
@@ -20042,10 +20033,10 @@
         <v>101</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>81</v>
@@ -20054,7 +20045,7 @@
         <v>81</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>81</v>
@@ -20062,10 +20053,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -20091,13 +20082,13 @@
         <v>109</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
@@ -20111,7 +20102,7 @@
         <v>81</v>
       </c>
       <c r="T140" t="s" s="2">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="U140" t="s" s="2">
         <v>81</v>
@@ -20126,10 +20117,10 @@
         <v>226</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="Z140" t="s" s="2">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>81</v>
@@ -20147,7 +20138,7 @@
         <v>81</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>79</v>
@@ -20165,7 +20156,7 @@
         <v>81</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>81</v>
@@ -20174,7 +20165,7 @@
         <v>81</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="AP140" t="s" s="2">
         <v>81</v>
@@ -20182,10 +20173,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -20211,16 +20202,16 @@
         <v>218</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>81</v>
@@ -20233,7 +20224,7 @@
         <v>81</v>
       </c>
       <c r="T141" t="s" s="2">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="U141" t="s" s="2">
         <v>81</v>
@@ -20269,7 +20260,7 @@
         <v>81</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>79</v>
@@ -20284,10 +20275,10 @@
         <v>101</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>81</v>
@@ -20296,7 +20287,7 @@
         <v>81</v>
       </c>
       <c r="AO141" t="s" s="2">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="AP141" t="s" s="2">
         <v>81</v>
@@ -20304,10 +20295,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20333,10 +20324,10 @@
         <v>218</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -20351,7 +20342,7 @@
         <v>81</v>
       </c>
       <c r="T142" t="s" s="2">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="U142" t="s" s="2">
         <v>81</v>
@@ -20387,7 +20378,7 @@
         <v>81</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>79</v>
@@ -20402,10 +20393,10 @@
         <v>101</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>81</v>
@@ -20414,7 +20405,7 @@
         <v>81</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>81</v>
@@ -20422,10 +20413,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20451,10 +20442,10 @@
         <v>218</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -20540,10 +20531,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20656,13 +20647,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>81</v>
@@ -20684,13 +20675,13 @@
         <v>81</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -20759,7 +20750,7 @@
         <v>81</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>81</v>
@@ -20776,13 +20767,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D146" t="s" s="2">
         <v>81</v>
@@ -20804,13 +20795,13 @@
         <v>81</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -20879,7 +20870,7 @@
         <v>81</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>81</v>
@@ -20896,13 +20887,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D147" t="s" s="2">
         <v>81</v>
@@ -20924,13 +20915,13 @@
         <v>81</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -20999,7 +20990,7 @@
         <v>81</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>81</v>
@@ -21016,13 +21007,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>81</v>
@@ -21044,13 +21035,13 @@
         <v>81</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -21136,10 +21127,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -21165,10 +21156,10 @@
         <v>218</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -21192,7 +21183,7 @@
         <v>81</v>
       </c>
       <c r="W149" t="s" s="2">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="X149" t="s" s="2">
         <v>81</v>
@@ -21219,7 +21210,7 @@
         <v>81</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>79</v>
@@ -21254,14 +21245,14 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
@@ -21283,10 +21274,10 @@
         <v>218</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -21301,7 +21292,7 @@
         <v>81</v>
       </c>
       <c r="T150" t="s" s="2">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="U150" t="s" s="2">
         <v>81</v>
@@ -21337,7 +21328,7 @@
         <v>81</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>79</v>
@@ -21352,10 +21343,10 @@
         <v>101</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>81</v>
@@ -21364,7 +21355,7 @@
         <v>81</v>
       </c>
       <c r="AO150" t="s" s="2">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="AP150" t="s" s="2">
         <v>81</v>
@@ -21372,14 +21363,14 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
@@ -21401,13 +21392,13 @@
         <v>218</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
@@ -21421,7 +21412,7 @@
         <v>81</v>
       </c>
       <c r="T151" t="s" s="2">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="U151" t="s" s="2">
         <v>81</v>
@@ -21457,7 +21448,7 @@
         <v>81</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>79</v>
@@ -21475,7 +21466,7 @@
         <v>81</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>81</v>
@@ -21484,7 +21475,7 @@
         <v>81</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>81</v>
@@ -21492,14 +21483,14 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s" s="2">
@@ -21521,10 +21512,10 @@
         <v>218</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -21575,7 +21566,7 @@
         <v>81</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>79</v>
@@ -21590,10 +21581,10 @@
         <v>101</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>81</v>
@@ -21602,7 +21593,7 @@
         <v>81</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>81</v>
@@ -21610,14 +21601,14 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
@@ -21639,10 +21630,10 @@
         <v>218</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -21657,7 +21648,7 @@
         <v>81</v>
       </c>
       <c r="T153" t="s" s="2">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="U153" t="s" s="2">
         <v>81</v>
@@ -21693,7 +21684,7 @@
         <v>81</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>79</v>
@@ -21708,10 +21699,10 @@
         <v>101</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>81</v>
@@ -21720,7 +21711,7 @@
         <v>81</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>81</v>
@@ -21728,10 +21719,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21757,13 +21748,13 @@
         <v>218</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" t="s" s="2">
@@ -21813,7 +21804,7 @@
         <v>81</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>79</v>
@@ -21828,10 +21819,10 @@
         <v>101</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>81</v>
@@ -21840,7 +21831,7 @@
         <v>81</v>
       </c>
       <c r="AO154" t="s" s="2">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="AP154" t="s" s="2">
         <v>81</v>
@@ -21848,10 +21839,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21877,14 +21868,14 @@
         <v>190</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>81</v>
@@ -21897,7 +21888,7 @@
         <v>81</v>
       </c>
       <c r="T155" t="s" s="2">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="U155" t="s" s="2">
         <v>81</v>
@@ -21933,7 +21924,7 @@
         <v>81</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>79</v>
@@ -21951,7 +21942,7 @@
         <v>81</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>81</v>
@@ -21960,7 +21951,7 @@
         <v>81</v>
       </c>
       <c r="AO155" t="s" s="2">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="AP155" t="s" s="2">
         <v>81</v>
@@ -21968,10 +21959,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21997,14 +21988,14 @@
         <v>175</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>81</v>
@@ -22032,10 +22023,10 @@
         <v>178</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="Z156" t="s" s="2">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="AA156" t="s" s="2">
         <v>81</v>
@@ -22053,7 +22044,7 @@
         <v>81</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>79</v>
@@ -22071,16 +22062,16 @@
         <v>81</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO156" t="s" s="2">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="AP156" t="s" s="2">
         <v>81</v>
@@ -22088,10 +22079,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -22206,10 +22197,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -22326,10 +22317,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -22448,10 +22439,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22566,10 +22557,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22686,10 +22677,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22788,7 +22779,7 @@
         <v>101</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>302</v>
@@ -22808,10 +22799,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22928,10 +22919,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -23028,7 +23019,7 @@
         <v>101</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="AL164" t="s" s="2">
         <v>319</v>
@@ -23048,10 +23039,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -23133,7 +23124,7 @@
         <v>81</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>79</v>
@@ -23148,19 +23139,19 @@
         <v>101</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="AL165" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AM165" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN165" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO165" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AM165" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN165" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO165" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AP165" t="s" s="2">
         <v>81</v>
@@ -23168,10 +23159,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -23194,19 +23185,19 @@
         <v>90</v>
       </c>
       <c r="K166" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L166" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L166" t="s" s="2">
+      <c r="M166" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M166" t="s" s="2">
+      <c r="N166" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="N166" t="s" s="2">
+      <c r="O166" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="O166" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>81</v>
@@ -23255,7 +23246,7 @@
         <v>81</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>79</v>
@@ -23273,16 +23264,16 @@
         <v>81</v>
       </c>
       <c r="AL166" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM166" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN166" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO166" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AM166" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN166" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO166" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AP166" t="s" s="2">
         <v>81</v>
@@ -23290,10 +23281,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -23319,16 +23310,16 @@
         <v>218</v>
       </c>
       <c r="L167" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M167" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M167" t="s" s="2">
+      <c r="N167" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="N167" t="s" s="2">
+      <c r="O167" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="O167" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>81</v>
@@ -23377,7 +23368,7 @@
         <v>81</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>79</v>
@@ -23395,16 +23386,16 @@
         <v>81</v>
       </c>
       <c r="AL167" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AM167" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN167" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO167" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AM167" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN167" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO167" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AP167" t="s" s="2">
         <v>81</v>
@@ -23412,10 +23403,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23438,19 +23429,19 @@
         <v>81</v>
       </c>
       <c r="K168" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="L168" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="M168" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="N168" t="s" s="2">
         <v>775</v>
       </c>
-      <c r="L168" t="s" s="2">
+      <c r="O168" t="s" s="2">
         <v>776</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>777</v>
-      </c>
-      <c r="N168" t="s" s="2">
-        <v>778</v>
-      </c>
-      <c r="O168" t="s" s="2">
-        <v>779</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>81</v>
@@ -23487,17 +23478,17 @@
         <v>81</v>
       </c>
       <c r="AB168" t="s" s="2">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="AC168" s="2"/>
       <c r="AD168" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>79</v>
@@ -23515,7 +23506,7 @@
         <v>81</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="AM168" t="s" s="2">
         <v>152</v>
@@ -23524,7 +23515,7 @@
         <v>81</v>
       </c>
       <c r="AO168" t="s" s="2">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="AP168" t="s" s="2">
         <v>81</v>
@@ -23532,13 +23523,13 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D169" t="s" s="2">
         <v>81</v>
@@ -23560,19 +23551,19 @@
         <v>81</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L169" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="M169" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="N169" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="O169" t="s" s="2">
         <v>776</v>
-      </c>
-      <c r="M169" t="s" s="2">
-        <v>777</v>
-      </c>
-      <c r="N169" t="s" s="2">
-        <v>778</v>
-      </c>
-      <c r="O169" t="s" s="2">
-        <v>779</v>
       </c>
       <c r="P169" t="s" s="2">
         <v>81</v>
@@ -23621,7 +23612,7 @@
         <v>81</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>79</v>
@@ -23639,7 +23630,7 @@
         <v>152</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="AM169" t="s" s="2">
         <v>152</v>
@@ -23648,7 +23639,7 @@
         <v>81</v>
       </c>
       <c r="AO169" t="s" s="2">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="AP169" t="s" s="2">
         <v>81</v>
@@ -23656,13 +23647,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D170" t="s" s="2">
         <v>81</v>
@@ -23684,19 +23675,19 @@
         <v>81</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="L170" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="M170" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="N170" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="O170" t="s" s="2">
         <v>776</v>
-      </c>
-      <c r="M170" t="s" s="2">
-        <v>777</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>778</v>
-      </c>
-      <c r="O170" t="s" s="2">
-        <v>779</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>81</v>
@@ -23745,7 +23736,7 @@
         <v>81</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>79</v>
@@ -23763,7 +23754,7 @@
         <v>152</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="AM170" t="s" s="2">
         <v>152</v>
@@ -23772,7 +23763,7 @@
         <v>81</v>
       </c>
       <c r="AO170" t="s" s="2">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="AP170" t="s" s="2">
         <v>81</v>
@@ -23780,10 +23771,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23806,19 +23797,19 @@
         <v>81</v>
       </c>
       <c r="K171" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="L171" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="M171" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="N171" t="s" s="2">
         <v>788</v>
       </c>
-      <c r="L171" t="s" s="2">
+      <c r="O171" t="s" s="2">
         <v>789</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>790</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>791</v>
-      </c>
-      <c r="O171" t="s" s="2">
-        <v>792</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>81</v>
@@ -23867,7 +23858,7 @@
         <v>81</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>79</v>
@@ -23885,7 +23876,7 @@
         <v>152</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="AM171" t="s" s="2">
         <v>152</v>
@@ -23894,7 +23885,7 @@
         <v>81</v>
       </c>
       <c r="AO171" t="s" s="2">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="AP171" t="s" s="2">
         <v>81</v>
@@ -23902,10 +23893,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23928,19 +23919,19 @@
         <v>81</v>
       </c>
       <c r="K172" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="L172" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="M172" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="N172" t="s" s="2">
         <v>796</v>
       </c>
-      <c r="L172" t="s" s="2">
+      <c r="O172" t="s" s="2">
         <v>797</v>
-      </c>
-      <c r="M172" t="s" s="2">
-        <v>798</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>799</v>
-      </c>
-      <c r="O172" t="s" s="2">
-        <v>800</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>81</v>
@@ -23989,7 +23980,7 @@
         <v>81</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>79</v>
@@ -24001,13 +23992,13 @@
         <v>81</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="AM172" t="s" s="2">
         <v>152</v>
@@ -24024,10 +24015,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -24142,10 +24133,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -24262,14 +24253,14 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" t="s" s="2">
@@ -24291,10 +24282,10 @@
         <v>134</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="N175" t="s" s="2">
         <v>158</v>
@@ -24349,7 +24340,7 @@
         <v>81</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>79</v>
@@ -24384,10 +24375,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -24413,14 +24404,14 @@
         <v>175</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>81</v>
@@ -24448,10 +24439,10 @@
         <v>178</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="Z176" t="s" s="2">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="AA176" t="s" s="2">
         <v>81</v>
@@ -24469,7 +24460,7 @@
         <v>81</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>79</v>
@@ -24496,7 +24487,7 @@
         <v>81</v>
       </c>
       <c r="AO176" t="s" s="2">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="AP176" t="s" s="2">
         <v>81</v>
@@ -24504,10 +24495,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -24622,10 +24613,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24742,10 +24733,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24864,10 +24855,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24982,10 +24973,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -25102,10 +25093,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -25204,7 +25195,7 @@
         <v>101</v>
       </c>
       <c r="AK182" t="s" s="2">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="AL182" t="s" s="2">
         <v>302</v>
@@ -25224,10 +25215,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -25344,10 +25335,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25444,7 +25435,7 @@
         <v>101</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="AL184" t="s" s="2">
         <v>319</v>
@@ -25464,10 +25455,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -25549,7 +25540,7 @@
         <v>81</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>79</v>
@@ -25564,19 +25555,19 @@
         <v>101</v>
       </c>
       <c r="AK185" t="s" s="2">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="AL185" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AM185" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN185" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO185" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AM185" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN185" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO185" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AP185" t="s" s="2">
         <v>81</v>
@@ -25584,10 +25575,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25610,19 +25601,19 @@
         <v>90</v>
       </c>
       <c r="K186" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L186" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L186" t="s" s="2">
+      <c r="M186" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M186" t="s" s="2">
+      <c r="N186" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="N186" t="s" s="2">
+      <c r="O186" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="O186" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>81</v>
@@ -25671,7 +25662,7 @@
         <v>81</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>79</v>
@@ -25689,16 +25680,16 @@
         <v>81</v>
       </c>
       <c r="AL186" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM186" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN186" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO186" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AM186" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN186" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO186" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AP186" t="s" s="2">
         <v>81</v>
@@ -25706,10 +25697,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25735,16 +25726,16 @@
         <v>218</v>
       </c>
       <c r="L187" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M187" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M187" t="s" s="2">
+      <c r="N187" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="N187" t="s" s="2">
+      <c r="O187" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="O187" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>81</v>
@@ -25793,7 +25784,7 @@
         <v>81</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>79</v>
@@ -25811,16 +25802,16 @@
         <v>81</v>
       </c>
       <c r="AL187" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AM187" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN187" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO187" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AM187" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN187" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO187" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AP187" t="s" s="2">
         <v>81</v>
@@ -25828,10 +25819,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25854,17 +25845,17 @@
         <v>81</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" t="s" s="2">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>81</v>
@@ -25913,7 +25904,7 @@
         <v>81</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>79</v>
@@ -25931,7 +25922,7 @@
         <v>81</v>
       </c>
       <c r="AL188" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AM188" t="s" s="2">
         <v>152</v>
@@ -25940,7 +25931,7 @@
         <v>81</v>
       </c>
       <c r="AO188" t="s" s="2">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="AP188" t="s" s="2">
         <v>81</v>
@@ -25948,10 +25939,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -26066,10 +26057,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -26186,10 +26177,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -26215,16 +26206,16 @@
         <v>109</v>
       </c>
       <c r="L191" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M191" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N191" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="O191" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="M191" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="O191" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="P191" t="s" s="2">
         <v>81</v>
@@ -26252,10 +26243,10 @@
         <v>226</v>
       </c>
       <c r="Y191" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="Z191" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AA191" t="s" s="2">
         <v>81</v>
@@ -26273,7 +26264,7 @@
         <v>81</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>79</v>
@@ -26291,7 +26282,7 @@
         <v>81</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>81</v>
@@ -26300,7 +26291,7 @@
         <v>81</v>
       </c>
       <c r="AO191" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AP191" t="s" s="2">
         <v>81</v>
@@ -26308,10 +26299,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26337,16 +26328,16 @@
         <v>218</v>
       </c>
       <c r="L192" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M192" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N192" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="O192" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="M192" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O192" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="P192" t="s" s="2">
         <v>81</v>
@@ -26395,7 +26386,7 @@
         <v>81</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>79</v>
@@ -26413,7 +26404,7 @@
         <v>81</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AM192" t="s" s="2">
         <v>81</v>
@@ -26422,7 +26413,7 @@
         <v>81</v>
       </c>
       <c r="AO192" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AP192" t="s" s="2">
         <v>81</v>
@@ -26430,14 +26421,14 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" t="s" s="2">
@@ -26459,13 +26450,13 @@
         <v>218</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="O193" s="2"/>
       <c r="P193" t="s" s="2">
@@ -26515,7 +26506,7 @@
         <v>81</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>79</v>
@@ -26530,10 +26521,10 @@
         <v>101</v>
       </c>
       <c r="AK193" t="s" s="2">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="AL193" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AM193" t="s" s="2">
         <v>81</v>
@@ -26542,7 +26533,7 @@
         <v>81</v>
       </c>
       <c r="AO193" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="AP193" t="s" s="2">
         <v>81</v>
@@ -26550,14 +26541,14 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" t="s" s="2">
@@ -26579,13 +26570,13 @@
         <v>218</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="O194" s="2"/>
       <c r="P194" t="s" s="2">
@@ -26635,7 +26626,7 @@
         <v>81</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>79</v>
@@ -26650,10 +26641,10 @@
         <v>101</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="AL194" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="AM194" t="s" s="2">
         <v>81</v>
@@ -26662,7 +26653,7 @@
         <v>81</v>
       </c>
       <c r="AO194" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="AP194" t="s" s="2">
         <v>81</v>
@@ -26670,10 +26661,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26699,10 +26690,10 @@
         <v>218</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="N195" s="2"/>
       <c r="O195" s="2"/>
@@ -26753,7 +26744,7 @@
         <v>81</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>79</v>
@@ -26771,7 +26762,7 @@
         <v>81</v>
       </c>
       <c r="AL195" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AM195" t="s" s="2">
         <v>81</v>
@@ -26780,7 +26771,7 @@
         <v>81</v>
       </c>
       <c r="AO195" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AP195" t="s" s="2">
         <v>81</v>
@@ -26788,10 +26779,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -26817,10 +26808,10 @@
         <v>218</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" s="2"/>
@@ -26871,7 +26862,7 @@
         <v>81</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>79</v>
@@ -26889,7 +26880,7 @@
         <v>81</v>
       </c>
       <c r="AL196" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AM196" t="s" s="2">
         <v>81</v>
@@ -26898,7 +26889,7 @@
         <v>81</v>
       </c>
       <c r="AO196" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="AP196" t="s" s="2">
         <v>81</v>
@@ -26906,10 +26897,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -26935,14 +26926,14 @@
         <v>190</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="P197" t="s" s="2">
         <v>81</v>
@@ -26991,7 +26982,7 @@
         <v>81</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>79</v>
@@ -27009,7 +27000,7 @@
         <v>81</v>
       </c>
       <c r="AL197" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AM197" t="s" s="2">
         <v>81</v>
@@ -27018,7 +27009,7 @@
         <v>81</v>
       </c>
       <c r="AO197" t="s" s="2">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AP197" t="s" s="2">
         <v>81</v>
@@ -27026,10 +27017,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -27052,19 +27043,19 @@
         <v>81</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="O198" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>81</v>
@@ -27113,7 +27104,7 @@
         <v>81</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>79</v>
@@ -27131,7 +27122,7 @@
         <v>81</v>
       </c>
       <c r="AL198" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AM198" t="s" s="2">
         <v>152</v>
@@ -27140,7 +27131,7 @@
         <v>81</v>
       </c>
       <c r="AO198" t="s" s="2">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="AP198" t="s" s="2">
         <v>81</v>
@@ -27148,10 +27139,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -27266,10 +27257,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -27386,10 +27377,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -27415,10 +27406,10 @@
         <v>109</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="N201" s="2"/>
       <c r="O201" s="2"/>
@@ -27448,46 +27439,46 @@
         <v>226</v>
       </c>
       <c r="Y201" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="Z201" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AA201" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB201" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC201" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD201" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE201" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF201" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AG201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH201" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI201" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="Z201" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AA201" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB201" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC201" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD201" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE201" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF201" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AG201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH201" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI201" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="AJ201" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK201" t="s" s="2">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="AL201" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="AM201" t="s" s="2">
         <v>81</v>
@@ -27496,7 +27487,7 @@
         <v>81</v>
       </c>
       <c r="AO201" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AP201" t="s" s="2">
         <v>81</v>
@@ -27504,10 +27495,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -27533,16 +27524,16 @@
         <v>218</v>
       </c>
       <c r="L202" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M202" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N202" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="O202" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="M202" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N202" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="O202" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="P202" t="s" s="2">
         <v>81</v>
@@ -27591,7 +27582,7 @@
         <v>81</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>79</v>
@@ -27606,10 +27597,10 @@
         <v>101</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="AL202" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AM202" t="s" s="2">
         <v>81</v>
@@ -27618,7 +27609,7 @@
         <v>81</v>
       </c>
       <c r="AO202" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="AP202" t="s" s="2">
         <v>81</v>
@@ -27626,10 +27617,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -27655,16 +27646,16 @@
         <v>109</v>
       </c>
       <c r="L203" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M203" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="N203" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="O203" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="M203" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="N203" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="O203" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="P203" t="s" s="2">
         <v>81</v>
@@ -27692,10 +27683,10 @@
         <v>226</v>
       </c>
       <c r="Y203" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="Z203" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AA203" t="s" s="2">
         <v>81</v>
@@ -27713,7 +27704,7 @@
         <v>81</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>79</v>
@@ -27728,10 +27719,10 @@
         <v>101</v>
       </c>
       <c r="AK203" t="s" s="2">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="AL203" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AM203" t="s" s="2">
         <v>81</v>
@@ -27740,7 +27731,7 @@
         <v>81</v>
       </c>
       <c r="AO203" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AP203" t="s" s="2">
         <v>81</v>
@@ -27748,10 +27739,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -27774,16 +27765,16 @@
         <v>90</v>
       </c>
       <c r="K204" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="L204" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M204" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N204" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="L204" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="M204" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="N204" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="O204" s="2"/>
       <c r="P204" t="s" s="2">
@@ -27833,7 +27824,7 @@
         <v>81</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>79</v>
@@ -27868,10 +27859,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27897,10 +27888,10 @@
         <v>190</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
@@ -27951,7 +27942,7 @@
         <v>81</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>79</v>
@@ -27969,7 +27960,7 @@
         <v>81</v>
       </c>
       <c r="AL205" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AM205" t="s" s="2">
         <v>81</v>
@@ -27986,10 +27977,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -28012,19 +28003,19 @@
         <v>81</v>
       </c>
       <c r="K206" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="L206" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="M206" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="N206" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="L206" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="M206" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="N206" t="s" s="2">
-        <v>630</v>
-      </c>
       <c r="O206" t="s" s="2">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="P206" t="s" s="2">
         <v>81</v>
@@ -28073,7 +28064,7 @@
         <v>81</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>79</v>
@@ -28085,13 +28076,13 @@
         <v>151</v>
       </c>
       <c r="AJ206" t="s" s="2">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AK206" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL206" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AM206" t="s" s="2">
         <v>81</v>
@@ -28100,7 +28091,7 @@
         <v>81</v>
       </c>
       <c r="AO206" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AP206" t="s" s="2">
         <v>81</v>
@@ -28108,10 +28099,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -28226,10 +28217,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -28346,10 +28337,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -28375,16 +28366,16 @@
         <v>109</v>
       </c>
       <c r="L209" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M209" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="N209" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="O209" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="M209" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="N209" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="O209" t="s" s="2">
-        <v>641</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>81</v>
@@ -28397,7 +28388,7 @@
         <v>81</v>
       </c>
       <c r="T209" t="s" s="2">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="U209" t="s" s="2">
         <v>81</v>
@@ -28412,10 +28403,10 @@
         <v>226</v>
       </c>
       <c r="Y209" t="s" s="2">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="Z209" t="s" s="2">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="AA209" t="s" s="2">
         <v>81</v>
@@ -28433,7 +28424,7 @@
         <v>81</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>79</v>
@@ -28448,10 +28439,10 @@
         <v>101</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="AL209" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AM209" t="s" s="2">
         <v>81</v>
@@ -28460,7 +28451,7 @@
         <v>81</v>
       </c>
       <c r="AO209" t="s" s="2">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="AP209" t="s" s="2">
         <v>81</v>
@@ -28468,10 +28459,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -28497,13 +28488,13 @@
         <v>109</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="O210" s="2"/>
       <c r="P210" t="s" s="2">
@@ -28517,7 +28508,7 @@
         <v>81</v>
       </c>
       <c r="T210" t="s" s="2">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="U210" t="s" s="2">
         <v>81</v>
@@ -28532,10 +28523,10 @@
         <v>226</v>
       </c>
       <c r="Y210" t="s" s="2">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="Z210" t="s" s="2">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AA210" t="s" s="2">
         <v>81</v>
@@ -28553,7 +28544,7 @@
         <v>81</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>79</v>
@@ -28571,7 +28562,7 @@
         <v>81</v>
       </c>
       <c r="AL210" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AM210" t="s" s="2">
         <v>81</v>
@@ -28580,7 +28571,7 @@
         <v>81</v>
       </c>
       <c r="AO210" t="s" s="2">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="AP210" t="s" s="2">
         <v>81</v>
@@ -28588,10 +28579,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -28617,16 +28608,16 @@
         <v>218</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="O211" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="P211" t="s" s="2">
         <v>81</v>
@@ -28639,7 +28630,7 @@
         <v>81</v>
       </c>
       <c r="T211" t="s" s="2">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="U211" t="s" s="2">
         <v>81</v>
@@ -28675,7 +28666,7 @@
         <v>81</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>79</v>
@@ -28690,10 +28681,10 @@
         <v>101</v>
       </c>
       <c r="AK211" t="s" s="2">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="AL211" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AM211" t="s" s="2">
         <v>81</v>
@@ -28702,7 +28693,7 @@
         <v>81</v>
       </c>
       <c r="AO211" t="s" s="2">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="AP211" t="s" s="2">
         <v>81</v>
@@ -28710,10 +28701,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -28739,10 +28730,10 @@
         <v>218</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
@@ -28757,7 +28748,7 @@
         <v>81</v>
       </c>
       <c r="T212" t="s" s="2">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="U212" t="s" s="2">
         <v>81</v>
@@ -28793,7 +28784,7 @@
         <v>81</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>79</v>
@@ -28808,10 +28799,10 @@
         <v>101</v>
       </c>
       <c r="AK212" t="s" s="2">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="AL212" t="s" s="2">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="AM212" t="s" s="2">
         <v>81</v>
@@ -28820,7 +28811,7 @@
         <v>81</v>
       </c>
       <c r="AO212" t="s" s="2">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="AP212" t="s" s="2">
         <v>81</v>
@@ -28828,10 +28819,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28857,10 +28848,10 @@
         <v>218</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="N213" s="2"/>
       <c r="O213" s="2"/>
@@ -28946,10 +28937,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -29062,13 +29053,13 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D215" t="s" s="2">
         <v>81</v>
@@ -29090,13 +29081,13 @@
         <v>81</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" s="2"/>
@@ -29165,7 +29156,7 @@
         <v>81</v>
       </c>
       <c r="AL215" t="s" s="2">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="AM215" t="s" s="2">
         <v>81</v>
@@ -29182,13 +29173,13 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D216" t="s" s="2">
         <v>81</v>
@@ -29210,13 +29201,13 @@
         <v>81</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="N216" s="2"/>
       <c r="O216" s="2"/>
@@ -29285,7 +29276,7 @@
         <v>81</v>
       </c>
       <c r="AL216" t="s" s="2">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="AM216" t="s" s="2">
         <v>81</v>
@@ -29302,13 +29293,13 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D217" t="s" s="2">
         <v>81</v>
@@ -29330,13 +29321,13 @@
         <v>81</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" s="2"/>
@@ -29405,7 +29396,7 @@
         <v>81</v>
       </c>
       <c r="AL217" t="s" s="2">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="AM217" t="s" s="2">
         <v>81</v>
@@ -29422,13 +29413,13 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D218" t="s" s="2">
         <v>81</v>
@@ -29450,13 +29441,13 @@
         <v>81</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" s="2"/>
@@ -29542,10 +29533,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -29571,10 +29562,10 @@
         <v>218</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
@@ -29598,7 +29589,7 @@
         <v>81</v>
       </c>
       <c r="W219" t="s" s="2">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="X219" t="s" s="2">
         <v>81</v>
@@ -29625,7 +29616,7 @@
         <v>81</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>79</v>
@@ -29660,14 +29651,14 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E220" s="2"/>
       <c r="F220" t="s" s="2">
@@ -29689,10 +29680,10 @@
         <v>218</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" s="2"/>
@@ -29707,7 +29698,7 @@
         <v>81</v>
       </c>
       <c r="T220" t="s" s="2">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="U220" t="s" s="2">
         <v>81</v>
@@ -29743,7 +29734,7 @@
         <v>81</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>79</v>
@@ -29758,10 +29749,10 @@
         <v>101</v>
       </c>
       <c r="AK220" t="s" s="2">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="AL220" t="s" s="2">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="AM220" t="s" s="2">
         <v>81</v>
@@ -29770,7 +29761,7 @@
         <v>81</v>
       </c>
       <c r="AO220" t="s" s="2">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="AP220" t="s" s="2">
         <v>81</v>
@@ -29778,14 +29769,14 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E221" s="2"/>
       <c r="F221" t="s" s="2">
@@ -29807,13 +29798,13 @@
         <v>218</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="O221" s="2"/>
       <c r="P221" t="s" s="2">
@@ -29827,7 +29818,7 @@
         <v>81</v>
       </c>
       <c r="T221" t="s" s="2">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="U221" t="s" s="2">
         <v>81</v>
@@ -29863,7 +29854,7 @@
         <v>81</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>79</v>
@@ -29881,7 +29872,7 @@
         <v>81</v>
       </c>
       <c r="AL221" t="s" s="2">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="AM221" t="s" s="2">
         <v>81</v>
@@ -29890,7 +29881,7 @@
         <v>81</v>
       </c>
       <c r="AO221" t="s" s="2">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="AP221" t="s" s="2">
         <v>81</v>
@@ -29898,14 +29889,14 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E222" s="2"/>
       <c r="F222" t="s" s="2">
@@ -29927,10 +29918,10 @@
         <v>218</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="N222" s="2"/>
       <c r="O222" s="2"/>
@@ -29981,7 +29972,7 @@
         <v>81</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>79</v>
@@ -29996,10 +29987,10 @@
         <v>101</v>
       </c>
       <c r="AK222" t="s" s="2">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="AL222" t="s" s="2">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="AM222" t="s" s="2">
         <v>81</v>
@@ -30008,7 +29999,7 @@
         <v>81</v>
       </c>
       <c r="AO222" t="s" s="2">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="AP222" t="s" s="2">
         <v>81</v>
@@ -30016,14 +30007,14 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E223" s="2"/>
       <c r="F223" t="s" s="2">
@@ -30045,10 +30036,10 @@
         <v>218</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" s="2"/>
@@ -30063,7 +30054,7 @@
         <v>81</v>
       </c>
       <c r="T223" t="s" s="2">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="U223" t="s" s="2">
         <v>81</v>
@@ -30099,7 +30090,7 @@
         <v>81</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="AG223" t="s" s="2">
         <v>79</v>
@@ -30114,10 +30105,10 @@
         <v>101</v>
       </c>
       <c r="AK223" t="s" s="2">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="AL223" t="s" s="2">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="AM223" t="s" s="2">
         <v>81</v>
@@ -30126,7 +30117,7 @@
         <v>81</v>
       </c>
       <c r="AO223" t="s" s="2">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="AP223" t="s" s="2">
         <v>81</v>
@@ -30134,10 +30125,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -30163,13 +30154,13 @@
         <v>218</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="O224" s="2"/>
       <c r="P224" t="s" s="2">
@@ -30219,7 +30210,7 @@
         <v>81</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>79</v>
@@ -30234,10 +30225,10 @@
         <v>101</v>
       </c>
       <c r="AK224" t="s" s="2">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="AL224" t="s" s="2">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="AM224" t="s" s="2">
         <v>81</v>
@@ -30246,7 +30237,7 @@
         <v>81</v>
       </c>
       <c r="AO224" t="s" s="2">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="AP224" t="s" s="2">
         <v>81</v>
@@ -30254,10 +30245,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -30283,14 +30274,14 @@
         <v>190</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" t="s" s="2">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="P225" t="s" s="2">
         <v>81</v>
@@ -30303,7 +30294,7 @@
         <v>81</v>
       </c>
       <c r="T225" t="s" s="2">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="U225" t="s" s="2">
         <v>81</v>
@@ -30339,7 +30330,7 @@
         <v>81</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>79</v>
@@ -30357,7 +30348,7 @@
         <v>81</v>
       </c>
       <c r="AL225" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AM225" t="s" s="2">
         <v>81</v>
@@ -30366,7 +30357,7 @@
         <v>81</v>
       </c>
       <c r="AO225" t="s" s="2">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="AP225" t="s" s="2">
         <v>81</v>
@@ -30374,10 +30365,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -30403,14 +30394,14 @@
         <v>109</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="N226" s="2"/>
       <c r="O226" t="s" s="2">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="P226" t="s" s="2">
         <v>81</v>
@@ -30438,10 +30429,10 @@
         <v>226</v>
       </c>
       <c r="Y226" t="s" s="2">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="Z226" t="s" s="2">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="AA226" t="s" s="2">
         <v>81</v>
@@ -30459,7 +30450,7 @@
         <v>81</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>79</v>
@@ -30477,7 +30468,7 @@
         <v>152</v>
       </c>
       <c r="AL226" t="s" s="2">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AM226" t="s" s="2">
         <v>152</v>
@@ -30486,7 +30477,7 @@
         <v>81</v>
       </c>
       <c r="AO226" t="s" s="2">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="AP226" t="s" s="2">
         <v>81</v>
@@ -30494,10 +30485,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -30523,10 +30514,10 @@
         <v>218</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="N227" s="2"/>
       <c r="O227" s="2"/>
@@ -30612,10 +30603,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -30728,13 +30719,13 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D229" t="s" s="2">
         <v>81</v>
@@ -30756,13 +30747,13 @@
         <v>81</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" s="2"/>
@@ -30848,10 +30839,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -30877,10 +30868,10 @@
         <v>218</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="N230" s="2"/>
       <c r="O230" s="2"/>
@@ -30931,7 +30922,7 @@
         <v>81</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AG230" t="s" s="2">
         <v>79</v>
@@ -30966,10 +30957,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -30995,14 +30986,14 @@
         <v>263</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="N231" s="2"/>
       <c r="O231" t="s" s="2">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="P231" t="s" s="2">
         <v>81</v>
@@ -31051,7 +31042,7 @@
         <v>81</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="AG231" t="s" s="2">
         <v>79</v>
@@ -31060,16 +31051,16 @@
         <v>89</v>
       </c>
       <c r="AI231" t="s" s="2">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="AJ231" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK231" t="s" s="2">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="AL231" t="s" s="2">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="AM231" t="s" s="2">
         <v>152</v>
@@ -31078,7 +31069,7 @@
         <v>81</v>
       </c>
       <c r="AO231" t="s" s="2">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="AP231" t="s" s="2">
         <v>81</v>
@@ -31086,10 +31077,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -31115,10 +31106,10 @@
         <v>190</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="N232" s="2"/>
       <c r="O232" s="2"/>
@@ -31169,7 +31160,7 @@
         <v>81</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>79</v>
@@ -31187,7 +31178,7 @@
         <v>152</v>
       </c>
       <c r="AL232" t="s" s="2">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="AM232" t="s" s="2">
         <v>152</v>
@@ -31204,10 +31195,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -31230,19 +31221,19 @@
         <v>81</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="L233" t="s" s="2">
+        <v>908</v>
+      </c>
+      <c r="M233" t="s" s="2">
+        <v>909</v>
+      </c>
+      <c r="N233" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="O233" t="s" s="2">
         <v>911</v>
-      </c>
-      <c r="M233" t="s" s="2">
-        <v>912</v>
-      </c>
-      <c r="N233" t="s" s="2">
-        <v>913</v>
-      </c>
-      <c r="O233" t="s" s="2">
-        <v>914</v>
       </c>
       <c r="P233" t="s" s="2">
         <v>81</v>
@@ -31291,7 +31282,7 @@
         <v>81</v>
       </c>
       <c r="AF233" t="s" s="2">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="AG233" t="s" s="2">
         <v>79</v>
@@ -31309,10 +31300,10 @@
         <v>81</v>
       </c>
       <c r="AL233" t="s" s="2">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="AM233" t="s" s="2">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="AN233" t="s" s="2">
         <v>81</v>
@@ -31326,10 +31317,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -31444,10 +31435,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -31564,14 +31555,14 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236" t="s" s="2">
@@ -31593,10 +31584,10 @@
         <v>134</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="N236" t="s" s="2">
         <v>158</v>
@@ -31651,7 +31642,7 @@
         <v>81</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="AG236" t="s" s="2">
         <v>79</v>
@@ -31686,10 +31677,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -31715,16 +31706,16 @@
         <v>175</v>
       </c>
       <c r="L237" t="s" s="2">
+        <v>918</v>
+      </c>
+      <c r="M237" t="s" s="2">
+        <v>919</v>
+      </c>
+      <c r="N237" t="s" s="2">
+        <v>920</v>
+      </c>
+      <c r="O237" t="s" s="2">
         <v>921</v>
-      </c>
-      <c r="M237" t="s" s="2">
-        <v>922</v>
-      </c>
-      <c r="N237" t="s" s="2">
-        <v>923</v>
-      </c>
-      <c r="O237" t="s" s="2">
-        <v>924</v>
       </c>
       <c r="P237" t="s" s="2">
         <v>81</v>
@@ -31773,7 +31764,7 @@
         <v>81</v>
       </c>
       <c r="AF237" t="s" s="2">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="AG237" t="s" s="2">
         <v>89</v>
@@ -31788,19 +31779,19 @@
         <v>101</v>
       </c>
       <c r="AK237" t="s" s="2">
+        <v>922</v>
+      </c>
+      <c r="AL237" t="s" s="2">
+        <v>923</v>
+      </c>
+      <c r="AM237" t="s" s="2">
+        <v>924</v>
+      </c>
+      <c r="AN237" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO237" t="s" s="2">
         <v>925</v>
-      </c>
-      <c r="AL237" t="s" s="2">
-        <v>926</v>
-      </c>
-      <c r="AM237" t="s" s="2">
-        <v>927</v>
-      </c>
-      <c r="AN237" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO237" t="s" s="2">
-        <v>928</v>
       </c>
       <c r="AP237" t="s" s="2">
         <v>81</v>
@@ -31808,10 +31799,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -31834,19 +31825,19 @@
         <v>81</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L238" t="s" s="2">
+        <v>927</v>
+      </c>
+      <c r="M238" t="s" s="2">
+        <v>928</v>
+      </c>
+      <c r="N238" t="s" s="2">
+        <v>929</v>
+      </c>
+      <c r="O238" t="s" s="2">
         <v>930</v>
-      </c>
-      <c r="M238" t="s" s="2">
-        <v>931</v>
-      </c>
-      <c r="N238" t="s" s="2">
-        <v>932</v>
-      </c>
-      <c r="O238" t="s" s="2">
-        <v>933</v>
       </c>
       <c r="P238" t="s" s="2">
         <v>81</v>
@@ -31895,7 +31886,7 @@
         <v>81</v>
       </c>
       <c r="AF238" t="s" s="2">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="AG238" t="s" s="2">
         <v>79</v>
@@ -31910,19 +31901,19 @@
         <v>101</v>
       </c>
       <c r="AK238" t="s" s="2">
+        <v>931</v>
+      </c>
+      <c r="AL238" t="s" s="2">
+        <v>932</v>
+      </c>
+      <c r="AM238" t="s" s="2">
+        <v>933</v>
+      </c>
+      <c r="AN238" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO238" t="s" s="2">
         <v>934</v>
-      </c>
-      <c r="AL238" t="s" s="2">
-        <v>935</v>
-      </c>
-      <c r="AM238" t="s" s="2">
-        <v>936</v>
-      </c>
-      <c r="AN238" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO238" t="s" s="2">
-        <v>937</v>
       </c>
       <c r="AP238" t="s" s="2">
         <v>81</v>
@@ -31930,14 +31921,14 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="E239" s="2"/>
       <c r="F239" t="s" s="2">
@@ -31956,16 +31947,16 @@
         <v>81</v>
       </c>
       <c r="K239" t="s" s="2">
+        <v>937</v>
+      </c>
+      <c r="L239" t="s" s="2">
+        <v>938</v>
+      </c>
+      <c r="M239" t="s" s="2">
+        <v>939</v>
+      </c>
+      <c r="N239" t="s" s="2">
         <v>940</v>
-      </c>
-      <c r="L239" t="s" s="2">
-        <v>941</v>
-      </c>
-      <c r="M239" t="s" s="2">
-        <v>942</v>
-      </c>
-      <c r="N239" t="s" s="2">
-        <v>943</v>
       </c>
       <c r="O239" s="2"/>
       <c r="P239" t="s" s="2">
@@ -32015,7 +32006,7 @@
         <v>81</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="AG239" t="s" s="2">
         <v>79</v>
@@ -32030,10 +32021,10 @@
         <v>101</v>
       </c>
       <c r="AK239" t="s" s="2">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="AL239" t="s" s="2">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="AM239" t="s" s="2">
         <v>152</v>
@@ -32042,7 +32033,7 @@
         <v>81</v>
       </c>
       <c r="AO239" t="s" s="2">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="AP239" t="s" s="2">
         <v>81</v>
@@ -32050,10 +32041,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -32079,16 +32070,16 @@
         <v>263</v>
       </c>
       <c r="L240" t="s" s="2">
+        <v>945</v>
+      </c>
+      <c r="M240" t="s" s="2">
+        <v>946</v>
+      </c>
+      <c r="N240" t="s" s="2">
+        <v>947</v>
+      </c>
+      <c r="O240" t="s" s="2">
         <v>948</v>
-      </c>
-      <c r="M240" t="s" s="2">
-        <v>949</v>
-      </c>
-      <c r="N240" t="s" s="2">
-        <v>950</v>
-      </c>
-      <c r="O240" t="s" s="2">
-        <v>951</v>
       </c>
       <c r="P240" t="s" s="2">
         <v>81</v>
@@ -32137,7 +32128,7 @@
         <v>81</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="AG240" t="s" s="2">
         <v>79</v>
@@ -32152,13 +32143,13 @@
         <v>101</v>
       </c>
       <c r="AK240" t="s" s="2">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="AL240" t="s" s="2">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="AM240" t="s" s="2">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="AN240" t="s" s="2">
         <v>81</v>
@@ -32172,10 +32163,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -32198,19 +32189,19 @@
         <v>90</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="L241" t="s" s="2">
+        <v>952</v>
+      </c>
+      <c r="M241" t="s" s="2">
+        <v>953</v>
+      </c>
+      <c r="N241" t="s" s="2">
+        <v>954</v>
+      </c>
+      <c r="O241" t="s" s="2">
         <v>955</v>
-      </c>
-      <c r="M241" t="s" s="2">
-        <v>956</v>
-      </c>
-      <c r="N241" t="s" s="2">
-        <v>957</v>
-      </c>
-      <c r="O241" t="s" s="2">
-        <v>958</v>
       </c>
       <c r="P241" t="s" s="2">
         <v>81</v>
@@ -32259,7 +32250,7 @@
         <v>81</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="AG241" t="s" s="2">
         <v>79</v>
@@ -32277,7 +32268,7 @@
         <v>81</v>
       </c>
       <c r="AL241" t="s" s="2">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="AM241" t="s" s="2">
         <v>152</v>
@@ -32294,10 +32285,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -32412,10 +32403,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
@@ -32532,14 +32523,14 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E244" s="2"/>
       <c r="F244" t="s" s="2">
@@ -32561,10 +32552,10 @@
         <v>134</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="N244" t="s" s="2">
         <v>158</v>
@@ -32619,7 +32610,7 @@
         <v>81</v>
       </c>
       <c r="AF244" t="s" s="2">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="AG244" t="s" s="2">
         <v>79</v>
@@ -32654,10 +32645,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -32680,16 +32671,16 @@
         <v>90</v>
       </c>
       <c r="K245" t="s" s="2">
+        <v>961</v>
+      </c>
+      <c r="L245" t="s" s="2">
+        <v>962</v>
+      </c>
+      <c r="M245" t="s" s="2">
+        <v>963</v>
+      </c>
+      <c r="N245" t="s" s="2">
         <v>964</v>
-      </c>
-      <c r="L245" t="s" s="2">
-        <v>965</v>
-      </c>
-      <c r="M245" t="s" s="2">
-        <v>966</v>
-      </c>
-      <c r="N245" t="s" s="2">
-        <v>967</v>
       </c>
       <c r="O245" s="2"/>
       <c r="P245" t="s" s="2">
@@ -32739,7 +32730,7 @@
         <v>81</v>
       </c>
       <c r="AF245" t="s" s="2">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="AG245" t="s" s="2">
         <v>89</v>
@@ -32766,7 +32757,7 @@
         <v>81</v>
       </c>
       <c r="AO245" t="s" s="2">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="AP245" t="s" s="2">
         <v>81</v>
@@ -32774,10 +32765,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -32803,10 +32794,10 @@
         <v>109</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="N246" s="2"/>
       <c r="O246" s="2"/>
@@ -32836,10 +32827,10 @@
         <v>226</v>
       </c>
       <c r="Y246" t="s" s="2">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="Z246" t="s" s="2">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="AA246" t="s" s="2">
         <v>81</v>
@@ -32857,7 +32848,7 @@
         <v>81</v>
       </c>
       <c r="AF246" t="s" s="2">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="AG246" t="s" s="2">
         <v>89</v>
@@ -32875,7 +32866,7 @@
         <v>152</v>
       </c>
       <c r="AL246" t="s" s="2">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="AM246" t="s" s="2">
         <v>152</v>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-12T08:42:46+00:00</t>
+    <t>2024-07-17T07:47:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-17T07:47:16+00:00</t>
+    <t>2024-10-16T10:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1952,7 +1952,7 @@
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-16T10:06:48+00:00</t>
+    <t>2024-10-22T13:21:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T13:21:16+00:00</t>
+    <t>2024-10-22T15:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T15:01:33+00:00</t>
+    <t>2024-10-22T15:25:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
